--- a/Hoàng/2025/T4/MÔI TRƯỜNG VIỆT TIẾN & LIÊN DOANH MÔI TRƯỜNG ĐA NĂNG (59 59.1 -2025)/ĐA NĂNG/BÁO GIÁ KSK CÔNG TY LIÊN DANH MÔI TRƯỜNG ĐA NĂNG.xlsx
+++ b/Hoàng/2025/T4/MÔI TRƯỜNG VIỆT TIẾN & LIÊN DOANH MÔI TRƯỜNG ĐA NĂNG (59 59.1 -2025)/ĐA NĂNG/BÁO GIÁ KSK CÔNG TY LIÊN DANH MÔI TRƯỜNG ĐA NĂNG.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\T4\MÔI TRƯỜNG VIỆT TIẾN &amp; LIÊN DOANH MÔI TRƯỜNG ĐA NĂNG (59 59.1 -2025)\ĐA NĂNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F98B27-672D-41F2-802E-4913E8F3D844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430BC878-5CAE-4FF1-B267-C11CF583B53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BÁO GIÁ KSK" sheetId="4" r:id="rId1"/>
+    <sheet name="VIỆT TIẾN" sheetId="6" r:id="rId1"/>
+    <sheet name="ĐA NĂNG" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BÁO GIÁ KSK'!$A$1:$G$249</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BÁO GIÁ KSK'!$60:$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'ĐA NĂNG'!$A$1:$G$249</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'VIỆT TIẾN'!$A$1:$G$249</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'ĐA NĂNG'!$60:$60</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'VIỆT TIẾN'!$60:$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="426">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -1333,6 +1336,15 @@
   <si>
     <t>Đà Nẵng, Ngày       tháng      năm 2025</t>
   </si>
+  <si>
+    <t>- Giảm 10% phát sinh ngoài gói (Trừ gen, nha khoa, di truyền)</t>
+  </si>
+  <si>
+    <t>Kính gửi: CÔNG TY TNHH MÔI TRƯỜNG VIỆT TIẾN</t>
+  </si>
+  <si>
+    <t>Không khám</t>
+  </si>
 </sst>
 </file>
 
@@ -1342,7 +1354,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1494,6 +1506,14 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1921,7 +1941,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2281,21 +2301,12 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2325,9 +2336,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2343,18 +2351,153 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2397,90 +2540,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2496,67 +2555,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{A328DFE0-4CF6-452C-850C-D71344C98BBE}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2581,6 +2617,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>829830</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03800C72-80E0-4973-8419-D2A73F11FCF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="208225" y="304800"/>
+          <a:ext cx="2078930" cy="1317625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2925,14 +3010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4EFAC-5358-4031-B8BC-663929F6ADDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5056D473-D9C2-4F95-B9FE-4D11D1C46838}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K249"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2952,48 +3037,48 @@
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="179" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
@@ -3005,15 +3090,15 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="189" t="s">
+      <c r="A7" s="181" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -3034,41 +3119,41 @@
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
-      <c r="B9" s="190" t="s">
-        <v>411</v>
-      </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
+      <c r="B9" s="182" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="193"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="185"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="194"/>
-      <c r="B11" s="195"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="196"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="188"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -3082,17 +3167,17 @@
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="105"/>
-      <c r="F12" s="142"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="180"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="27" t="s">
         <v>3</v>
       </c>
@@ -3112,105 +3197,111 @@
     </row>
     <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="144" t="s">
         <v>417</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="149"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F14" s="115" t="s">
         <v>413</v>
       </c>
       <c r="G14" s="115" t="s">
         <v>413</v>
       </c>
-      <c r="H14" s="144"/>
+      <c r="H14" s="141"/>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="181">
+      <c r="A15" s="190">
         <f>IF(LEN(C15)=0,"",COUNTA($C$15:C15))</f>
         <v>1</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="182" t="s">
+      <c r="C15" s="191" t="s">
         <v>320</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="173">
+      <c r="E15" s="193">
         <v>150000</v>
       </c>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="174"/>
+      <c r="F15" s="198" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" s="198" t="s">
+        <v>425</v>
+      </c>
+      <c r="H15" s="194"/>
       <c r="I15" s="116"/>
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="182"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="174"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="194"/>
       <c r="I16" s="116"/>
     </row>
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="182"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="191"/>
       <c r="D17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="173"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="174"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="194"/>
       <c r="I17" s="116"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="182"/>
+      <c r="A18" s="190"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="191"/>
       <c r="D18" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="173"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="174"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="194"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="182"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="E19" s="173"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="174"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="194"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="182"/>
+      <c r="A20" s="190"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="191"/>
       <c r="D20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="173"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="174"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="194"/>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -3230,35 +3321,37 @@
       <c r="E21" s="120">
         <v>86000</v>
       </c>
-      <c r="F21" s="155"/>
+      <c r="F21" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="G21" s="120">
         <v>86000</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" s="153" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="150">
+    <row r="22" spans="1:9" s="149" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A22" s="146">
         <v>3</v>
       </c>
-      <c r="B22" s="139"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="118" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="154">
+      <c r="E22" s="150">
         <v>70000</v>
       </c>
-      <c r="F22" s="154">
+      <c r="F22" s="150">
         <v>70000</v>
       </c>
-      <c r="G22" s="154">
+      <c r="G22" s="150">
         <v>70000</v>
       </c>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="148"/>
     </row>
     <row r="23" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
@@ -3343,7 +3436,7 @@
         <f>IF(LEN(C26)=0,"",COUNTA($C$15:C26))</f>
         <v>7</v>
       </c>
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="177" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -3352,16 +3445,16 @@
       <c r="D26" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="176">
+      <c r="E26" s="195">
         <v>50000</v>
       </c>
-      <c r="F26" s="176">
+      <c r="F26" s="195">
         <v>50000</v>
       </c>
-      <c r="G26" s="176">
+      <c r="G26" s="195">
         <v>50000</v>
       </c>
-      <c r="H26" s="178" t="s">
+      <c r="H26" s="197" t="s">
         <v>372</v>
       </c>
       <c r="I26" s="10"/>
@@ -3371,17 +3464,17 @@
         <f>IF(LEN(C27)=0,"",COUNTA($C$15:C27))</f>
         <v>8</v>
       </c>
-      <c r="B27" s="175"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="35" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="178"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
@@ -3415,7 +3508,7 @@
         <f>IF(LEN(C29)=0,"",COUNTA($C$15:C29))</f>
         <v>10</v>
       </c>
-      <c r="B29" s="183" t="s">
+      <c r="B29" s="192" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="35" t="s">
@@ -3441,7 +3534,7 @@
         <f>IF(LEN(C30)=0,"",COUNTA($C$15:C30))</f>
         <v>11</v>
       </c>
-      <c r="B30" s="183"/>
+      <c r="B30" s="192"/>
       <c r="C30" s="38" t="s">
         <v>61</v>
       </c>
@@ -3465,7 +3558,7 @@
         <f>IF(LEN(C31)=0,"",COUNTA($C$15:C31))</f>
         <v>12</v>
       </c>
-      <c r="B31" s="183"/>
+      <c r="B31" s="192"/>
       <c r="C31" s="38" t="s">
         <v>65</v>
       </c>
@@ -3489,7 +3582,7 @@
         <f>IF(LEN(C32)=0,"",COUNTA($C$15:C32))</f>
         <v>13</v>
       </c>
-      <c r="B32" s="183"/>
+      <c r="B32" s="192"/>
       <c r="C32" s="38" t="s">
         <v>67</v>
       </c>
@@ -3523,8 +3616,12 @@
       <c r="E33" s="121">
         <v>60000</v>
       </c>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
+      <c r="F33" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G33" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="H33" s="123"/>
       <c r="I33" s="10"/>
     </row>
@@ -3540,13 +3637,13 @@
       <c r="D34" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="E34" s="134">
+      <c r="E34" s="133">
         <v>109000</v>
       </c>
-      <c r="F34" s="134">
+      <c r="F34" s="133">
         <v>109000</v>
       </c>
-      <c r="G34" s="134">
+      <c r="G34" s="133">
         <v>109000</v>
       </c>
       <c r="H34" s="123"/>
@@ -3557,7 +3654,7 @@
         <f>IF(LEN(C35)=0,"",COUNTA($C$15:C35))</f>
         <v>16</v>
       </c>
-      <c r="B35" s="175" t="s">
+      <c r="B35" s="177" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="38" t="s">
@@ -3566,7 +3663,9 @@
       <c r="D35" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="E35" s="135"/>
+      <c r="E35" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F35" s="121">
         <v>34000</v>
       </c>
@@ -3583,14 +3682,16 @@
         <f>IF(LEN(C36)=0,"",COUNTA($C$15:C36))</f>
         <v>17</v>
       </c>
-      <c r="B36" s="175"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="38" t="s">
         <v>269</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="135"/>
+      <c r="E36" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F36" s="121">
         <v>34000</v>
       </c>
@@ -3616,7 +3717,9 @@
       <c r="D37" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="135"/>
+      <c r="E37" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F37" s="121">
         <v>34000</v>
       </c>
@@ -3640,7 +3743,9 @@
       <c r="D38" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="135"/>
+      <c r="E38" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F38" s="121">
         <v>34000</v>
       </c>
@@ -3662,7 +3767,9 @@
       <c r="D39" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="135"/>
+      <c r="E39" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F39" s="121">
         <v>159000</v>
       </c>
@@ -3686,7 +3793,9 @@
       <c r="D40" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="E40" s="135"/>
+      <c r="E40" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F40" s="121">
         <v>250000</v>
       </c>
@@ -3701,13 +3810,13 @@
         <f>IF(LEN(C41)=0,"",COUNTA($C$15:C41))</f>
         <v>22</v>
       </c>
-      <c r="B41" s="185" t="s">
+      <c r="B41" s="173" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="184" t="s">
+      <c r="D41" s="178" t="s">
         <v>387</v>
       </c>
       <c r="E41" s="121">
@@ -3719,7 +3828,7 @@
       <c r="G41" s="121">
         <v>120000</v>
       </c>
-      <c r="H41" s="156" t="s">
+      <c r="H41" s="199" t="s">
         <v>371</v>
       </c>
       <c r="I41" s="11"/>
@@ -3729,11 +3838,11 @@
         <f>IF(LEN(C42)=0,"",COUNTA($C$15:C42))</f>
         <v>23</v>
       </c>
-      <c r="B42" s="186"/>
+      <c r="B42" s="174"/>
       <c r="C42" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="184"/>
+      <c r="D42" s="178"/>
       <c r="E42" s="121">
         <v>120000</v>
       </c>
@@ -3751,16 +3860,20 @@
         <f>IF(LEN(C43)=0,"",COUNTA($C$15:C43))</f>
         <v>24</v>
       </c>
-      <c r="B43" s="186"/>
+      <c r="B43" s="174"/>
       <c r="C43" s="127" t="s">
         <v>89</v>
       </c>
       <c r="D43" s="66"/>
-      <c r="E43" s="133"/>
+      <c r="E43" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F43" s="121">
         <v>177000</v>
       </c>
-      <c r="G43" s="133"/>
+      <c r="G43" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="H43" s="158"/>
       <c r="I43" s="11"/>
     </row>
@@ -3769,7 +3882,7 @@
         <f>IF(LEN(C44)=0,"",COUNTA($C$15:C44))</f>
         <v>25</v>
       </c>
-      <c r="B44" s="168"/>
+      <c r="B44" s="209"/>
       <c r="C44" s="30" t="s">
         <v>318</v>
       </c>
@@ -3793,7 +3906,7 @@
         <f>IF(LEN(C45)=0,"",COUNTA($C$15:C45))</f>
         <v>26</v>
       </c>
-      <c r="B45" s="168"/>
+      <c r="B45" s="209"/>
       <c r="C45" s="30" t="s">
         <v>319</v>
       </c>
@@ -3817,18 +3930,22 @@
         <f>IF(LEN(C46)=0,"",COUNTA($C$15:C46))</f>
         <v>27</v>
       </c>
-      <c r="B46" s="169"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="136">
+      <c r="E46" s="134">
         <v>150000</v>
       </c>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
+      <c r="F46" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G46" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="H46" s="34"/>
       <c r="I46" s="10"/>
     </row>
@@ -3844,11 +3961,15 @@
       <c r="D47" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="E47" s="136">
+      <c r="E47" s="134">
         <v>200000</v>
       </c>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
+      <c r="F47" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G47" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="H47" s="34"/>
       <c r="I47" s="10"/>
     </row>
@@ -3864,11 +3985,15 @@
       <c r="D48" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="136">
+      <c r="E48" s="134">
         <v>250000</v>
       </c>
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
+      <c r="F48" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G48" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="H48" s="34"/>
       <c r="I48" s="10"/>
     </row>
@@ -3887,8 +4012,12 @@
       <c r="E49" s="121">
         <v>150000</v>
       </c>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
+      <c r="F49" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G49" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="H49" s="34"/>
       <c r="I49" s="10"/>
     </row>
@@ -3898,10 +4027,10 @@
         <v>31</v>
       </c>
       <c r="B50" s="122"/>
-      <c r="C50" s="139" t="s">
+      <c r="C50" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="140" t="s">
+      <c r="D50" s="137" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="129" t="s">
@@ -3916,12 +4045,12 @@
       <c r="H50" s="34"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" s="153" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="149" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
         <f>IF(LEN(C51)=0,"",COUNTA($C$15:C51))</f>
         <v>32</v>
       </c>
-      <c r="B51" s="139" t="s">
+      <c r="B51" s="136" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="118" t="s">
@@ -3930,13 +4059,15 @@
       <c r="D51" s="118" t="s">
         <v>324</v>
       </c>
-      <c r="E51" s="137"/>
+      <c r="E51" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F51" s="119">
         <v>560000</v>
       </c>
       <c r="G51" s="119"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="152"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="148"/>
     </row>
     <row r="52" spans="1:9" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31">
@@ -3952,7 +4083,9 @@
       <c r="D52" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="E52" s="137"/>
+      <c r="E52" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F52" s="128">
         <v>200000</v>
       </c>
@@ -3974,11 +4107,15 @@
       <c r="D53" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E53" s="133"/>
+      <c r="E53" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="F53" s="121">
         <v>446000</v>
       </c>
-      <c r="G53" s="133"/>
+      <c r="G53" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="H53" s="34"/>
       <c r="I53" s="10"/>
     </row>
@@ -3994,14 +4131,18 @@
       <c r="D54" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
+      <c r="E54" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F54" s="145" t="s">
+        <v>425</v>
+      </c>
       <c r="G54" s="115">
         <v>83000</v>
       </c>
-      <c r="H54" s="144"/>
-    </row>
-    <row r="55" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="141"/>
+    </row>
+    <row r="55" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <f>IF(LEN(C55)=0,"",COUNTA($C$15:C55))</f>
         <v>36</v>
@@ -4013,20 +4154,24 @@
       <c r="D55" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="148"/>
-      <c r="F55" s="148"/>
-      <c r="G55" s="138">
+      <c r="E55" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F55" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" s="135">
         <v>1600000</v>
       </c>
-      <c r="H55" s="144"/>
+      <c r="H55" s="141"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="170" t="s">
+      <c r="A56" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="171"/>
-      <c r="C56" s="171"/>
-      <c r="D56" s="172"/>
+      <c r="B56" s="212"/>
+      <c r="C56" s="212"/>
+      <c r="D56" s="213"/>
       <c r="E56" s="112">
         <f>SUM(E15:E55)</f>
         <v>2158000</v>
@@ -4048,7 +4193,7 @@
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
       <c r="E57" s="43"/>
-      <c r="F57" s="141"/>
+      <c r="F57" s="138"/>
       <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:9" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4059,7 +4204,7 @@
       <c r="C58" s="46"/>
       <c r="D58" s="46"/>
       <c r="E58" s="105"/>
-      <c r="F58" s="142"/>
+      <c r="F58" s="139"/>
       <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -4068,17 +4213,17 @@
       <c r="C59" s="50"/>
       <c r="D59" s="50"/>
       <c r="E59" s="51"/>
-      <c r="F59" s="143"/>
+      <c r="F59" s="140"/>
       <c r="G59" s="52"/>
     </row>
     <row r="60" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B60" s="170" t="s">
+      <c r="B60" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="172"/>
+      <c r="C60" s="213"/>
       <c r="D60" s="53" t="s">
         <v>3</v>
       </c>
@@ -4198,7 +4343,7 @@
         <f>IF(LEN(C66)=0,"",COUNTA($C$62:C66))</f>
         <v>5</v>
       </c>
-      <c r="B66" s="197" t="s">
+      <c r="B66" s="169" t="s">
         <v>272</v>
       </c>
       <c r="C66" s="29" t="s">
@@ -4214,7 +4359,7 @@
         <f t="shared" si="0"/>
         <v>55800</v>
       </c>
-      <c r="G66" s="156" t="s">
+      <c r="G66" s="199" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4223,7 +4368,7 @@
         <f>IF(LEN(C67)=0,"",COUNTA($C$62:C67))</f>
         <v>6</v>
       </c>
-      <c r="B67" s="198"/>
+      <c r="B67" s="170"/>
       <c r="C67" s="29" t="s">
         <v>192</v>
       </c>
@@ -4244,7 +4389,7 @@
         <f>IF(LEN(C68)=0,"",COUNTA($C$62:C68))</f>
         <v>7</v>
       </c>
-      <c r="B68" s="199"/>
+      <c r="B68" s="171"/>
       <c r="C68" s="29" t="s">
         <v>197</v>
       </c>
@@ -4265,7 +4410,7 @@
         <f>IF(LEN(C69)=0,"",COUNTA($C$62:C69))</f>
         <v>8</v>
       </c>
-      <c r="B69" s="197" t="s">
+      <c r="B69" s="169" t="s">
         <v>267</v>
       </c>
       <c r="C69" s="29" t="s">
@@ -4283,12 +4428,12 @@
       </c>
       <c r="G69" s="34"/>
     </row>
-    <row r="70" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31">
         <f>IF(LEN(C70)=0,"",COUNTA($C$62:C70))</f>
         <v>9</v>
       </c>
-      <c r="B70" s="198"/>
+      <c r="B70" s="170"/>
       <c r="C70" s="29" t="s">
         <v>264</v>
       </c>
@@ -4302,16 +4447,16 @@
         <f t="shared" si="0"/>
         <v>117000</v>
       </c>
-      <c r="G70" s="156" t="s">
+      <c r="G70" s="199" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="31">
         <f>IF(LEN(C71)=0,"",COUNTA($C$62:C71))</f>
         <v>10</v>
       </c>
-      <c r="B71" s="198"/>
+      <c r="B71" s="170"/>
       <c r="C71" s="29" t="s">
         <v>265</v>
       </c>
@@ -4327,12 +4472,12 @@
       </c>
       <c r="G71" s="157"/>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31">
         <f>IF(LEN(C72)=0,"",COUNTA($C$62:C72))</f>
         <v>11</v>
       </c>
-      <c r="B72" s="199"/>
+      <c r="B72" s="171"/>
       <c r="C72" s="29" t="s">
         <v>266</v>
       </c>
@@ -4348,7 +4493,7 @@
       </c>
       <c r="G72" s="158"/>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31">
         <f>IF(LEN(C73)=0,"",COUNTA($C$62:C73))</f>
         <v>12</v>
@@ -4371,7 +4516,7 @@
       </c>
       <c r="G73" s="34"/>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="31">
         <f>IF(LEN(C74)=0,"",COUNTA($C$62:C74))</f>
         <v>13</v>
@@ -4392,7 +4537,7 @@
       </c>
       <c r="G74" s="110"/>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31">
         <f>IF(LEN(C75)=0,"",COUNTA($C$62:C75))</f>
         <v>14</v>
@@ -4415,12 +4560,12 @@
       </c>
       <c r="G75" s="101"/>
     </row>
-    <row r="76" spans="1:7" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="31">
         <f>IF(LEN(C76)=0,"",COUNTA($C$62:C76))</f>
         <v>15</v>
       </c>
-      <c r="B76" s="203" t="s">
+      <c r="B76" s="216" t="s">
         <v>200</v>
       </c>
       <c r="C76" s="29" t="s">
@@ -4436,16 +4581,16 @@
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
-      <c r="G76" s="204" t="s">
+      <c r="G76" s="217" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31">
         <f>IF(LEN(C77)=0,"",COUNTA($C$62:C77))</f>
         <v>16</v>
       </c>
-      <c r="B77" s="203"/>
+      <c r="B77" s="216"/>
       <c r="C77" s="29" t="s">
         <v>273</v>
       </c>
@@ -4459,15 +4604,15 @@
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="G77" s="205"/>
+      <c r="G77" s="218"/>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="206" t="s">
+      <c r="A78" s="159" t="s">
         <v>203</v>
       </c>
-      <c r="B78" s="207"/>
-      <c r="C78" s="207"/>
-      <c r="D78" s="208"/>
+      <c r="B78" s="160"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="161"/>
       <c r="E78" s="58"/>
       <c r="F78" s="58"/>
       <c r="G78" s="59"/>
@@ -4477,7 +4622,7 @@
         <f>IF(LEN(C79)=0,"",COUNTA($C$62:C79))</f>
         <v>17</v>
       </c>
-      <c r="B79" s="185" t="s">
+      <c r="B79" s="173" t="s">
         <v>255</v>
       </c>
       <c r="C79" s="65" t="s">
@@ -4500,7 +4645,7 @@
         <f>IF(LEN(C80)=0,"",COUNTA($C$62:C80))</f>
         <v>18</v>
       </c>
-      <c r="B80" s="186"/>
+      <c r="B80" s="174"/>
       <c r="C80" s="65" t="s">
         <v>80</v>
       </c>
@@ -4521,7 +4666,7 @@
         <f>IF(LEN(C81)=0,"",COUNTA($C$62:C81))</f>
         <v>19</v>
       </c>
-      <c r="B81" s="186"/>
+      <c r="B81" s="174"/>
       <c r="C81" s="65" t="s">
         <v>82</v>
       </c>
@@ -4542,7 +4687,7 @@
         <f>IF(LEN(C82)=0,"",COUNTA($C$62:C82))</f>
         <v>20</v>
       </c>
-      <c r="B82" s="186"/>
+      <c r="B82" s="174"/>
       <c r="C82" s="65" t="s">
         <v>90</v>
       </c>
@@ -4563,7 +4708,7 @@
         <f>IF(LEN(C83)=0,"",COUNTA($C$62:C83))</f>
         <v>21</v>
       </c>
-      <c r="B83" s="186"/>
+      <c r="B83" s="174"/>
       <c r="C83" s="65" t="s">
         <v>79</v>
       </c>
@@ -4586,7 +4731,7 @@
         <f>IF(LEN(C84)=0,"",COUNTA($C$62:C84))</f>
         <v>22</v>
       </c>
-      <c r="B84" s="186"/>
+      <c r="B84" s="174"/>
       <c r="C84" s="67" t="s">
         <v>229</v>
       </c>
@@ -4602,12 +4747,12 @@
       </c>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="31">
         <f>IF(LEN(C85)=0,"",COUNTA($C$62:C85))</f>
         <v>23</v>
       </c>
-      <c r="B85" s="186"/>
+      <c r="B85" s="174"/>
       <c r="C85" s="65" t="s">
         <v>72</v>
       </c>
@@ -4623,12 +4768,12 @@
       </c>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="1:7" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="12" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="31">
         <f>IF(LEN(C86)=0,"",COUNTA($C$62:C86))</f>
         <v>24</v>
       </c>
-      <c r="B86" s="186"/>
+      <c r="B86" s="174"/>
       <c r="C86" s="65" t="s">
         <v>74</v>
       </c>
@@ -4644,12 +4789,12 @@
       </c>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="1:7" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="31">
         <f>IF(LEN(C87)=0,"",COUNTA($C$62:C87))</f>
         <v>25</v>
       </c>
-      <c r="B87" s="186"/>
+      <c r="B87" s="174"/>
       <c r="C87" s="65" t="s">
         <v>84</v>
       </c>
@@ -4665,12 +4810,12 @@
       </c>
       <c r="G87" s="34"/>
     </row>
-    <row r="88" spans="1:7" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="31">
         <f>IF(LEN(C88)=0,"",COUNTA($C$62:C88))</f>
         <v>26</v>
       </c>
-      <c r="B88" s="200"/>
+      <c r="B88" s="175"/>
       <c r="C88" s="65" t="s">
         <v>92</v>
       </c>
@@ -4686,18 +4831,18 @@
       </c>
       <c r="G88" s="34"/>
     </row>
-    <row r="89" spans="1:7" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="31">
         <f>IF(LEN(C89)=0,"",COUNTA($C$62:C89))</f>
         <v>27</v>
       </c>
-      <c r="B89" s="185" t="s">
+      <c r="B89" s="173" t="s">
         <v>388</v>
       </c>
       <c r="C89" s="65" t="s">
         <v>389</v>
       </c>
-      <c r="D89" s="201" t="s">
+      <c r="D89" s="214" t="s">
         <v>391</v>
       </c>
       <c r="E89" s="33">
@@ -4709,16 +4854,16 @@
       </c>
       <c r="G89" s="95"/>
     </row>
-    <row r="90" spans="1:7" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="31">
         <f>IF(LEN(C90)=0,"",COUNTA($C$62:C90))</f>
         <v>28</v>
       </c>
-      <c r="B90" s="186"/>
+      <c r="B90" s="174"/>
       <c r="C90" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="D90" s="202"/>
+      <c r="D90" s="215"/>
       <c r="E90" s="33">
         <v>323000</v>
       </c>
@@ -4733,7 +4878,7 @@
         <f>IF(LEN(C91)=0,"",COUNTA($C$62:C91))</f>
         <v>29</v>
       </c>
-      <c r="B91" s="186"/>
+      <c r="B91" s="174"/>
       <c r="C91" s="65" t="s">
         <v>393</v>
       </c>
@@ -4754,7 +4899,7 @@
         <f>IF(LEN(C92)=0,"",COUNTA($C$62:C92))</f>
         <v>30</v>
       </c>
-      <c r="B92" s="200"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="65" t="s">
         <v>394</v>
       </c>
@@ -4771,12 +4916,12 @@
       <c r="G92" s="95"/>
     </row>
     <row r="93" spans="1:7" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="206" t="s">
+      <c r="A93" s="159" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="207"/>
-      <c r="C93" s="207"/>
-      <c r="D93" s="208"/>
+      <c r="B93" s="160"/>
+      <c r="C93" s="160"/>
+      <c r="D93" s="161"/>
       <c r="E93" s="58"/>
       <c r="F93" s="58"/>
       <c r="G93" s="59"/>
@@ -4786,7 +4931,7 @@
         <f>IF(LEN(C94)=0,"",COUNTA($C$62:C94))</f>
         <v>31</v>
       </c>
-      <c r="B94" s="209" t="s">
+      <c r="B94" s="176" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="29" t="s">
@@ -4809,7 +4954,7 @@
         <f>IF(LEN(C95)=0,"",COUNTA($C$62:C95))</f>
         <v>32</v>
       </c>
-      <c r="B95" s="209"/>
+      <c r="B95" s="176"/>
       <c r="C95" s="29" t="s">
         <v>97</v>
       </c>
@@ -4830,7 +4975,7 @@
         <f>IF(LEN(C96)=0,"",COUNTA($C$62:C96))</f>
         <v>33</v>
       </c>
-      <c r="B96" s="209"/>
+      <c r="B96" s="176"/>
       <c r="C96" s="29" t="s">
         <v>99</v>
       </c>
@@ -4853,7 +4998,7 @@
         <f>IF(LEN(C97)=0,"",COUNTA($C$62:C97))</f>
         <v>34</v>
       </c>
-      <c r="B97" s="209"/>
+      <c r="B97" s="176"/>
       <c r="C97" s="29" t="s">
         <v>102</v>
       </c>
@@ -4876,7 +5021,7 @@
         <f>IF(LEN(C98)=0,"",COUNTA($C$62:C98))</f>
         <v>35</v>
       </c>
-      <c r="B98" s="209"/>
+      <c r="B98" s="176"/>
       <c r="C98" s="29" t="s">
         <v>396</v>
       </c>
@@ -4897,7 +5042,7 @@
         <f>IF(LEN(C99)=0,"",COUNTA($C$62:C99))</f>
         <v>36</v>
       </c>
-      <c r="B99" s="209"/>
+      <c r="B99" s="176"/>
       <c r="C99" s="29" t="s">
         <v>104</v>
       </c>
@@ -4920,7 +5065,7 @@
         <f>IF(LEN(C100)=0,"",COUNTA($C$62:C100))</f>
         <v>37</v>
       </c>
-      <c r="B100" s="209"/>
+      <c r="B100" s="176"/>
       <c r="C100" s="29" t="s">
         <v>107</v>
       </c>
@@ -4943,7 +5088,7 @@
         <f>IF(LEN(C101)=0,"",COUNTA($C$62:C101))</f>
         <v>38</v>
       </c>
-      <c r="B101" s="209"/>
+      <c r="B101" s="176"/>
       <c r="C101" s="29" t="s">
         <v>110</v>
       </c>
@@ -4966,7 +5111,7 @@
         <f>IF(LEN(C102)=0,"",COUNTA($C$62:C102))</f>
         <v>39</v>
       </c>
-      <c r="B102" s="209" t="s">
+      <c r="B102" s="176" t="s">
         <v>113</v>
       </c>
       <c r="C102" s="29" t="s">
@@ -4989,7 +5134,7 @@
         <f>IF(LEN(C103)=0,"",COUNTA($C$62:C103))</f>
         <v>40</v>
       </c>
-      <c r="B103" s="209"/>
+      <c r="B103" s="176"/>
       <c r="C103" s="29" t="s">
         <v>116</v>
       </c>
@@ -5010,7 +5155,7 @@
         <f>IF(LEN(C104)=0,"",COUNTA($C$62:C104))</f>
         <v>41</v>
       </c>
-      <c r="B104" s="210" t="s">
+      <c r="B104" s="165" t="s">
         <v>118</v>
       </c>
       <c r="C104" s="29" t="s">
@@ -5033,7 +5178,7 @@
         <f>IF(LEN(C105)=0,"",COUNTA($C$62:C105))</f>
         <v>42</v>
       </c>
-      <c r="B105" s="211"/>
+      <c r="B105" s="166"/>
       <c r="C105" s="29" t="s">
         <v>379</v>
       </c>
@@ -5054,7 +5199,7 @@
         <f>IF(LEN(C106)=0,"",COUNTA($C$62:C106))</f>
         <v>43</v>
       </c>
-      <c r="B106" s="212"/>
+      <c r="B106" s="167"/>
       <c r="C106" s="29" t="s">
         <v>122</v>
       </c>
@@ -5071,12 +5216,12 @@
       <c r="G106" s="34"/>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="206" t="s">
+      <c r="A107" s="159" t="s">
         <v>256</v>
       </c>
-      <c r="B107" s="207"/>
-      <c r="C107" s="207"/>
-      <c r="D107" s="208"/>
+      <c r="B107" s="160"/>
+      <c r="C107" s="160"/>
+      <c r="D107" s="161"/>
       <c r="E107" s="69"/>
       <c r="F107" s="69"/>
       <c r="G107" s="59"/>
@@ -5086,7 +5231,7 @@
         <f>IF(LEN(C108)=0,"",COUNTA($C$62:C108))</f>
         <v>44</v>
       </c>
-      <c r="B108" s="197" t="s">
+      <c r="B108" s="169" t="s">
         <v>235</v>
       </c>
       <c r="C108" s="29" t="s">
@@ -5109,7 +5254,7 @@
         <f>IF(LEN(C109)=0,"",COUNTA($C$62:C109))</f>
         <v>45</v>
       </c>
-      <c r="B109" s="199"/>
+      <c r="B109" s="171"/>
       <c r="C109" s="29" t="s">
         <v>234</v>
       </c>
@@ -5130,7 +5275,7 @@
         <f>IF(LEN(C110)=0,"",COUNTA($C$62:C110))</f>
         <v>46</v>
       </c>
-      <c r="B110" s="210" t="s">
+      <c r="B110" s="165" t="s">
         <v>238</v>
       </c>
       <c r="C110" s="29" t="s">
@@ -5151,7 +5296,7 @@
         <f>IF(LEN(C111)=0,"",COUNTA($C$62:C111))</f>
         <v>47</v>
       </c>
-      <c r="B111" s="212"/>
+      <c r="B111" s="167"/>
       <c r="C111" s="29" t="s">
         <v>237</v>
       </c>
@@ -5193,7 +5338,7 @@
         <f>IF(LEN(C113)=0,"",COUNTA($C$62:C113))</f>
         <v>49</v>
       </c>
-      <c r="B113" s="210" t="s">
+      <c r="B113" s="165" t="s">
         <v>253</v>
       </c>
       <c r="C113" s="29" t="s">
@@ -5214,7 +5359,7 @@
         <f>IF(LEN(C114)=0,"",COUNTA($C$62:C114))</f>
         <v>50</v>
       </c>
-      <c r="B114" s="211"/>
+      <c r="B114" s="166"/>
       <c r="C114" s="29" t="s">
         <v>240</v>
       </c>
@@ -5233,7 +5378,7 @@
         <f>IF(LEN(C115)=0,"",COUNTA($C$62:C115))</f>
         <v>51</v>
       </c>
-      <c r="B115" s="211"/>
+      <c r="B115" s="166"/>
       <c r="C115" s="29" t="s">
         <v>241</v>
       </c>
@@ -5252,7 +5397,7 @@
         <f>IF(LEN(C116)=0,"",COUNTA($C$62:C116))</f>
         <v>52</v>
       </c>
-      <c r="B116" s="211"/>
+      <c r="B116" s="166"/>
       <c r="C116" s="29" t="s">
         <v>242</v>
       </c>
@@ -5271,7 +5416,7 @@
         <f>IF(LEN(C117)=0,"",COUNTA($C$62:C117))</f>
         <v>53</v>
       </c>
-      <c r="B117" s="211"/>
+      <c r="B117" s="166"/>
       <c r="C117" s="29" t="s">
         <v>243</v>
       </c>
@@ -5290,7 +5435,7 @@
         <f>IF(LEN(C118)=0,"",COUNTA($C$62:C118))</f>
         <v>54</v>
       </c>
-      <c r="B118" s="211"/>
+      <c r="B118" s="166"/>
       <c r="C118" s="29" t="s">
         <v>244</v>
       </c>
@@ -5309,7 +5454,7 @@
         <f>IF(LEN(C119)=0,"",COUNTA($C$62:C119))</f>
         <v>55</v>
       </c>
-      <c r="B119" s="211"/>
+      <c r="B119" s="166"/>
       <c r="C119" s="29" t="s">
         <v>245</v>
       </c>
@@ -5328,7 +5473,7 @@
         <f>IF(LEN(C120)=0,"",COUNTA($C$62:C120))</f>
         <v>56</v>
       </c>
-      <c r="B120" s="211"/>
+      <c r="B120" s="166"/>
       <c r="C120" s="29" t="s">
         <v>246</v>
       </c>
@@ -5347,7 +5492,7 @@
         <f>IF(LEN(C121)=0,"",COUNTA($C$62:C121))</f>
         <v>57</v>
       </c>
-      <c r="B121" s="211"/>
+      <c r="B121" s="166"/>
       <c r="C121" s="29" t="s">
         <v>247</v>
       </c>
@@ -5366,7 +5511,7 @@
         <f>IF(LEN(C122)=0,"",COUNTA($C$62:C122))</f>
         <v>58</v>
       </c>
-      <c r="B122" s="211"/>
+      <c r="B122" s="166"/>
       <c r="C122" s="29" t="s">
         <v>248</v>
       </c>
@@ -5385,7 +5530,7 @@
         <f>IF(LEN(C123)=0,"",COUNTA($C$62:C123))</f>
         <v>59</v>
       </c>
-      <c r="B123" s="211"/>
+      <c r="B123" s="166"/>
       <c r="C123" s="29" t="s">
         <v>249</v>
       </c>
@@ -5404,7 +5549,7 @@
         <f>IF(LEN(C124)=0,"",COUNTA($C$62:C124))</f>
         <v>60</v>
       </c>
-      <c r="B124" s="211"/>
+      <c r="B124" s="166"/>
       <c r="C124" s="29" t="s">
         <v>250</v>
       </c>
@@ -5423,7 +5568,7 @@
         <f>IF(LEN(C125)=0,"",COUNTA($C$62:C125))</f>
         <v>61</v>
       </c>
-      <c r="B125" s="211"/>
+      <c r="B125" s="166"/>
       <c r="C125" s="29" t="s">
         <v>251</v>
       </c>
@@ -5442,7 +5587,7 @@
         <f>IF(LEN(C126)=0,"",COUNTA($C$62:C126))</f>
         <v>62</v>
       </c>
-      <c r="B126" s="212"/>
+      <c r="B126" s="167"/>
       <c r="C126" s="29" t="s">
         <v>252</v>
       </c>
@@ -5457,12 +5602,12 @@
       <c r="G126" s="34"/>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="206" t="s">
+      <c r="A127" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="B127" s="207"/>
-      <c r="C127" s="207"/>
-      <c r="D127" s="208"/>
+      <c r="B127" s="160"/>
+      <c r="C127" s="160"/>
+      <c r="D127" s="161"/>
       <c r="E127" s="58"/>
       <c r="F127" s="58"/>
       <c r="G127" s="59"/>
@@ -5514,22 +5659,22 @@
       <c r="G129" s="34"/>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="213" t="s">
+      <c r="A130" s="156" t="s">
         <v>257</v>
       </c>
-      <c r="B130" s="213"/>
-      <c r="C130" s="213"/>
-      <c r="D130" s="213"/>
+      <c r="B130" s="156"/>
+      <c r="C130" s="156"/>
+      <c r="D130" s="156"/>
       <c r="E130" s="69"/>
       <c r="F130" s="69"/>
       <c r="G130" s="59"/>
     </row>
-    <row r="131" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="31">
         <f>IF(LEN(C131)=0,"",COUNTA($C$62:C131))</f>
         <v>65</v>
       </c>
-      <c r="B131" s="214"/>
+      <c r="B131" s="168"/>
       <c r="C131" s="29" t="s">
         <v>398</v>
       </c>
@@ -5543,12 +5688,12 @@
       </c>
       <c r="G131" s="34"/>
     </row>
-    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="31">
         <f>IF(LEN(C132)=0,"",COUNTA($C$62:C132))</f>
         <v>66</v>
       </c>
-      <c r="B132" s="214"/>
+      <c r="B132" s="168"/>
       <c r="C132" s="29" t="s">
         <v>399</v>
       </c>
@@ -5562,12 +5707,12 @@
       </c>
       <c r="G132" s="34"/>
     </row>
-    <row r="133" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="31">
         <f>IF(LEN(C133)=0,"",COUNTA($C$62:C133))</f>
         <v>67</v>
       </c>
-      <c r="B133" s="214"/>
+      <c r="B133" s="168"/>
       <c r="C133" s="29" t="s">
         <v>400</v>
       </c>
@@ -5586,7 +5731,7 @@
         <f>IF(LEN(C134)=0,"",COUNTA($C$62:C134))</f>
         <v>68</v>
       </c>
-      <c r="B134" s="214"/>
+      <c r="B134" s="168"/>
       <c r="C134" s="30" t="s">
         <v>401</v>
       </c>
@@ -5607,7 +5752,7 @@
         <f>IF(LEN(C135)=0,"",COUNTA($C$62:C135))</f>
         <v>69</v>
       </c>
-      <c r="B135" s="214"/>
+      <c r="B135" s="168"/>
       <c r="C135" s="30" t="s">
         <v>134</v>
       </c>
@@ -5628,7 +5773,7 @@
         <f>IF(LEN(C136)=0,"",COUNTA($C$62:C136))</f>
         <v>70</v>
       </c>
-      <c r="B136" s="197" t="s">
+      <c r="B136" s="169" t="s">
         <v>277</v>
       </c>
       <c r="C136" s="29" t="s">
@@ -5651,7 +5796,7 @@
         <f>IF(LEN(C137)=0,"",COUNTA($C$62:C137))</f>
         <v>71</v>
       </c>
-      <c r="B137" s="198"/>
+      <c r="B137" s="170"/>
       <c r="C137" s="29" t="s">
         <v>139</v>
       </c>
@@ -5672,7 +5817,7 @@
         <f>IF(LEN(C138)=0,"",COUNTA($C$62:C138))</f>
         <v>72</v>
       </c>
-      <c r="B138" s="198"/>
+      <c r="B138" s="170"/>
       <c r="C138" s="29" t="s">
         <v>383</v>
       </c>
@@ -5693,7 +5838,7 @@
         <f>IF(LEN(C139)=0,"",COUNTA($C$62:C139))</f>
         <v>73</v>
       </c>
-      <c r="B139" s="198"/>
+      <c r="B139" s="170"/>
       <c r="C139" s="29" t="s">
         <v>385</v>
       </c>
@@ -5714,7 +5859,7 @@
         <f>IF(LEN(C140)=0,"",COUNTA($C$62:C140))</f>
         <v>74</v>
       </c>
-      <c r="B140" s="198"/>
+      <c r="B140" s="170"/>
       <c r="C140" s="29" t="s">
         <v>362</v>
       </c>
@@ -5735,7 +5880,7 @@
         <f>IF(LEN(C141)=0,"",COUNTA($C$62:C141))</f>
         <v>75</v>
       </c>
-      <c r="B141" s="199"/>
+      <c r="B141" s="171"/>
       <c r="C141" s="29" t="s">
         <v>141</v>
       </c>
@@ -5754,7 +5899,7 @@
         <f>IF(LEN(C142)=0,"",COUNTA($C$62:C142))</f>
         <v>76</v>
       </c>
-      <c r="B142" s="198" t="s">
+      <c r="B142" s="170" t="s">
         <v>278</v>
       </c>
       <c r="C142" s="29" t="s">
@@ -5775,7 +5920,7 @@
         <f>IF(LEN(C143)=0,"",COUNTA($C$62:C143))</f>
         <v>77</v>
       </c>
-      <c r="B143" s="198"/>
+      <c r="B143" s="170"/>
       <c r="C143" s="29" t="s">
         <v>147</v>
       </c>
@@ -5796,7 +5941,7 @@
         <f>IF(LEN(C144)=0,"",COUNTA($C$62:C144))</f>
         <v>78</v>
       </c>
-      <c r="B144" s="198"/>
+      <c r="B144" s="170"/>
       <c r="C144" s="29" t="s">
         <v>149</v>
       </c>
@@ -5817,7 +5962,7 @@
         <f>IF(LEN(C145)=0,"",COUNTA($C$62:C145))</f>
         <v>79</v>
       </c>
-      <c r="B145" s="198"/>
+      <c r="B145" s="170"/>
       <c r="C145" s="29" t="s">
         <v>151</v>
       </c>
@@ -5838,7 +5983,7 @@
         <f>IF(LEN(C146)=0,"",COUNTA($C$62:C146))</f>
         <v>80</v>
       </c>
-      <c r="B146" s="198"/>
+      <c r="B146" s="170"/>
       <c r="C146" s="29" t="s">
         <v>153</v>
       </c>
@@ -5859,7 +6004,7 @@
         <f>IF(LEN(C147)=0,"",COUNTA($C$62:C147))</f>
         <v>81</v>
       </c>
-      <c r="B147" s="198"/>
+      <c r="B147" s="170"/>
       <c r="C147" s="29" t="s">
         <v>154</v>
       </c>
@@ -5878,7 +6023,7 @@
         <f>IF(LEN(C148)=0,"",COUNTA($C$62:C148))</f>
         <v>82</v>
       </c>
-      <c r="B148" s="215" t="s">
+      <c r="B148" s="172" t="s">
         <v>299</v>
       </c>
       <c r="C148" s="29" t="s">
@@ -5903,7 +6048,7 @@
         <f>IF(LEN(C149)=0,"",COUNTA($C$62:C149))</f>
         <v>83</v>
       </c>
-      <c r="B149" s="215"/>
+      <c r="B149" s="172"/>
       <c r="C149" s="29" t="s">
         <v>335</v>
       </c>
@@ -5924,7 +6069,7 @@
         <f>IF(LEN(C150)=0,"",COUNTA($C$62:C150))</f>
         <v>84</v>
       </c>
-      <c r="B150" s="215"/>
+      <c r="B150" s="172"/>
       <c r="C150" s="29" t="s">
         <v>336</v>
       </c>
@@ -5947,7 +6092,7 @@
         <f>IF(LEN(C151)=0,"",COUNTA($C$62:C151))</f>
         <v>85</v>
       </c>
-      <c r="B151" s="215"/>
+      <c r="B151" s="172"/>
       <c r="C151" s="29" t="s">
         <v>337</v>
       </c>
@@ -5968,7 +6113,7 @@
         <f>IF(LEN(C152)=0,"",COUNTA($C$62:C152))</f>
         <v>86</v>
       </c>
-      <c r="B152" s="215"/>
+      <c r="B152" s="172"/>
       <c r="C152" s="29" t="s">
         <v>338</v>
       </c>
@@ -5989,7 +6134,7 @@
         <f>IF(LEN(C153)=0,"",COUNTA($C$62:C153))</f>
         <v>87</v>
       </c>
-      <c r="B153" s="215"/>
+      <c r="B153" s="172"/>
       <c r="C153" s="98" t="s">
         <v>365</v>
       </c>
@@ -6010,7 +6155,7 @@
         <f>IF(LEN(C154)=0,"",COUNTA($C$62:C154))</f>
         <v>88</v>
       </c>
-      <c r="B154" s="215"/>
+      <c r="B154" s="172"/>
       <c r="C154" s="29" t="s">
         <v>339</v>
       </c>
@@ -6031,7 +6176,7 @@
         <f>IF(LEN(C155)=0,"",COUNTA($C$62:C155))</f>
         <v>89</v>
       </c>
-      <c r="B155" s="215"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="29" t="s">
         <v>340</v>
       </c>
@@ -6052,7 +6197,7 @@
         <f>IF(LEN(C156)=0,"",COUNTA($C$62:C156))</f>
         <v>90</v>
       </c>
-      <c r="B156" s="215"/>
+      <c r="B156" s="172"/>
       <c r="C156" s="29" t="s">
         <v>341</v>
       </c>
@@ -6073,7 +6218,7 @@
         <f>IF(LEN(C157)=0,"",COUNTA($C$62:C157))</f>
         <v>91</v>
       </c>
-      <c r="B157" s="215"/>
+      <c r="B157" s="172"/>
       <c r="C157" s="98" t="s">
         <v>364</v>
       </c>
@@ -6094,7 +6239,7 @@
         <f>IF(LEN(C158)=0,"",COUNTA($C$62:C158))</f>
         <v>92</v>
       </c>
-      <c r="B158" s="215"/>
+      <c r="B158" s="172"/>
       <c r="C158" s="29" t="s">
         <v>342</v>
       </c>
@@ -6117,7 +6262,7 @@
         <f>IF(LEN(C159)=0,"",COUNTA($C$62:C159))</f>
         <v>93</v>
       </c>
-      <c r="B159" s="215"/>
+      <c r="B159" s="172"/>
       <c r="C159" s="29" t="s">
         <v>343</v>
       </c>
@@ -6138,7 +6283,7 @@
         <f>IF(LEN(C160)=0,"",COUNTA($C$62:C160))</f>
         <v>94</v>
       </c>
-      <c r="B160" s="215"/>
+      <c r="B160" s="172"/>
       <c r="C160" s="29" t="s">
         <v>344</v>
       </c>
@@ -6159,7 +6304,7 @@
         <f>IF(LEN(C161)=0,"",COUNTA($C$62:C161))</f>
         <v>95</v>
       </c>
-      <c r="B161" s="215"/>
+      <c r="B161" s="172"/>
       <c r="C161" s="29" t="s">
         <v>345</v>
       </c>
@@ -6180,7 +6325,7 @@
         <f>IF(LEN(C162)=0,"",COUNTA($C$62:C162))</f>
         <v>96</v>
       </c>
-      <c r="B162" s="215"/>
+      <c r="B162" s="172"/>
       <c r="C162" s="29" t="s">
         <v>346</v>
       </c>
@@ -6201,7 +6346,7 @@
         <f>IF(LEN(C163)=0,"",COUNTA($C$62:C163))</f>
         <v>97</v>
       </c>
-      <c r="B163" s="215"/>
+      <c r="B163" s="172"/>
       <c r="C163" s="29" t="s">
         <v>347</v>
       </c>
@@ -6222,7 +6367,7 @@
         <f>IF(LEN(C164)=0,"",COUNTA($C$62:C164))</f>
         <v>98</v>
       </c>
-      <c r="B164" s="215"/>
+      <c r="B164" s="172"/>
       <c r="C164" s="29" t="s">
         <v>348</v>
       </c>
@@ -6243,7 +6388,7 @@
         <f>IF(LEN(C165)=0,"",COUNTA($C$62:C165))</f>
         <v>99</v>
       </c>
-      <c r="B165" s="215"/>
+      <c r="B165" s="172"/>
       <c r="C165" s="29" t="s">
         <v>349</v>
       </c>
@@ -6264,7 +6409,7 @@
         <f>IF(LEN(C166)=0,"",COUNTA($C$62:C166))</f>
         <v>100</v>
       </c>
-      <c r="B166" s="215"/>
+      <c r="B166" s="172"/>
       <c r="C166" s="29" t="s">
         <v>350</v>
       </c>
@@ -6285,7 +6430,7 @@
         <f>IF(LEN(C167)=0,"",COUNTA($C$62:C167))</f>
         <v>101</v>
       </c>
-      <c r="B167" s="215"/>
+      <c r="B167" s="172"/>
       <c r="C167" s="29" t="s">
         <v>351</v>
       </c>
@@ -6306,7 +6451,7 @@
         <f>IF(LEN(C168)=0,"",COUNTA($C$62:C168))</f>
         <v>102</v>
       </c>
-      <c r="B168" s="215"/>
+      <c r="B168" s="172"/>
       <c r="C168" s="29" t="s">
         <v>352</v>
       </c>
@@ -6327,7 +6472,7 @@
         <f>IF(LEN(C169)=0,"",COUNTA($C$62:C169))</f>
         <v>103</v>
       </c>
-      <c r="B169" s="215"/>
+      <c r="B169" s="172"/>
       <c r="C169" s="29" t="s">
         <v>353</v>
       </c>
@@ -6348,7 +6493,7 @@
         <f>IF(LEN(C170)=0,"",COUNTA($C$62:C170))</f>
         <v>104</v>
       </c>
-      <c r="B170" s="215"/>
+      <c r="B170" s="172"/>
       <c r="C170" s="29" t="s">
         <v>354</v>
       </c>
@@ -6369,7 +6514,7 @@
         <f>IF(LEN(C171)=0,"",COUNTA($C$62:C171))</f>
         <v>105</v>
       </c>
-      <c r="B171" s="215"/>
+      <c r="B171" s="172"/>
       <c r="C171" s="29" t="s">
         <v>355</v>
       </c>
@@ -6390,7 +6535,7 @@
         <f>IF(LEN(C172)=0,"",COUNTA($C$62:C172))</f>
         <v>106</v>
       </c>
-      <c r="B172" s="215"/>
+      <c r="B172" s="172"/>
       <c r="C172" s="29" t="s">
         <v>356</v>
       </c>
@@ -6409,7 +6554,7 @@
         <f>IF(LEN(C173)=0,"",COUNTA($C$62:C173))</f>
         <v>107</v>
       </c>
-      <c r="B173" s="215"/>
+      <c r="B173" s="172"/>
       <c r="C173" s="29" t="s">
         <v>357</v>
       </c>
@@ -6428,7 +6573,7 @@
         <f>IF(LEN(C174)=0,"",COUNTA($C$62:C174))</f>
         <v>108</v>
       </c>
-      <c r="B174" s="215"/>
+      <c r="B174" s="172"/>
       <c r="C174" s="29" t="s">
         <v>358</v>
       </c>
@@ -6449,7 +6594,7 @@
         <f>IF(LEN(C175)=0,"",COUNTA($C$62:C175))</f>
         <v>109</v>
       </c>
-      <c r="B175" s="215"/>
+      <c r="B175" s="172"/>
       <c r="C175" s="29" t="s">
         <v>359</v>
       </c>
@@ -6470,7 +6615,7 @@
         <f>IF(LEN(C176)=0,"",COUNTA($C$62:C176))</f>
         <v>110</v>
       </c>
-      <c r="B176" s="215"/>
+      <c r="B176" s="172"/>
       <c r="C176" s="29" t="s">
         <v>360</v>
       </c>
@@ -6491,7 +6636,7 @@
         <f>IF(LEN(C177)=0,"",COUNTA($C$62:C177))</f>
         <v>111</v>
       </c>
-      <c r="B177" s="215"/>
+      <c r="B177" s="172"/>
       <c r="C177" s="29" t="s">
         <v>361</v>
       </c>
@@ -6508,12 +6653,12 @@
       <c r="G177" s="34"/>
     </row>
     <row r="178" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="213" t="s">
+      <c r="A178" s="156" t="s">
         <v>201</v>
       </c>
-      <c r="B178" s="213"/>
-      <c r="C178" s="213"/>
-      <c r="D178" s="213"/>
+      <c r="B178" s="156"/>
+      <c r="C178" s="156"/>
+      <c r="D178" s="156"/>
       <c r="E178" s="69"/>
       <c r="F178" s="69"/>
       <c r="G178" s="59"/>
@@ -6566,7 +6711,7 @@
         <f>IF(LEN(C181)=0,"",COUNTA($C$62:C181))</f>
         <v>114</v>
       </c>
-      <c r="B181" s="197" t="s">
+      <c r="B181" s="169" t="s">
         <v>199</v>
       </c>
       <c r="C181" s="29" t="s">
@@ -6589,7 +6734,7 @@
         <f>IF(LEN(C182)=0,"",COUNTA($C$62:C182))</f>
         <v>115</v>
       </c>
-      <c r="B182" s="199"/>
+      <c r="B182" s="171"/>
       <c r="C182" s="29" t="s">
         <v>219</v>
       </c>
@@ -6606,12 +6751,12 @@
       <c r="G182" s="34"/>
     </row>
     <row r="183" spans="1:8" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="206" t="s">
+      <c r="A183" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="B183" s="207"/>
-      <c r="C183" s="207"/>
-      <c r="D183" s="208"/>
+      <c r="B183" s="160"/>
+      <c r="C183" s="160"/>
+      <c r="D183" s="161"/>
       <c r="E183" s="108"/>
       <c r="F183" s="108"/>
       <c r="G183" s="54"/>
@@ -6635,7 +6780,7 @@
         <f t="shared" si="2"/>
         <v>63900</v>
       </c>
-      <c r="G184" s="217" t="s">
+      <c r="G184" s="154" t="s">
         <v>374</v>
       </c>
     </row>
@@ -6658,20 +6803,20 @@
         <f t="shared" si="2"/>
         <v>77400</v>
       </c>
-      <c r="G185" s="218"/>
+      <c r="G185" s="155"/>
     </row>
     <row r="186" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="213" t="s">
+      <c r="A186" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="B186" s="213"/>
-      <c r="C186" s="213"/>
-      <c r="D186" s="213"/>
+      <c r="B186" s="156"/>
+      <c r="C186" s="156"/>
+      <c r="D186" s="156"/>
       <c r="E186" s="69"/>
       <c r="F186" s="69"/>
       <c r="G186" s="59"/>
     </row>
-    <row r="187" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="31">
         <f>IF(LEN(C187)=0,"",COUNTA($C$15:C187))</f>
         <v>154</v>
@@ -6692,7 +6837,7 @@
       </c>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="31">
         <f>IF(LEN(C188)=0,"",COUNTA($C$62:C188))</f>
         <v>119</v>
@@ -6819,12 +6964,12 @@
       <c r="G193" s="34"/>
     </row>
     <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="213" t="s">
+      <c r="A194" s="156" t="s">
         <v>258</v>
       </c>
-      <c r="B194" s="213"/>
-      <c r="C194" s="213"/>
-      <c r="D194" s="213"/>
+      <c r="B194" s="156"/>
+      <c r="C194" s="156"/>
+      <c r="D194" s="156"/>
       <c r="E194" s="69"/>
       <c r="F194" s="69"/>
       <c r="G194" s="59"/>
@@ -6851,12 +6996,12 @@
       <c r="G195" s="34"/>
     </row>
     <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="213" t="s">
+      <c r="A196" s="156" t="s">
         <v>228</v>
       </c>
-      <c r="B196" s="213"/>
-      <c r="C196" s="213"/>
-      <c r="D196" s="213"/>
+      <c r="B196" s="156"/>
+      <c r="C196" s="156"/>
+      <c r="D196" s="156"/>
       <c r="E196" s="69"/>
       <c r="F196" s="69"/>
       <c r="G196" s="59"/>
@@ -7009,12 +7154,12 @@
       <c r="G203" s="34"/>
     </row>
     <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="206" t="s">
+      <c r="A204" s="159" t="s">
         <v>317</v>
       </c>
-      <c r="B204" s="207"/>
-      <c r="C204" s="207"/>
-      <c r="D204" s="208"/>
+      <c r="B204" s="160"/>
+      <c r="C204" s="160"/>
+      <c r="D204" s="161"/>
       <c r="E204" s="58"/>
       <c r="F204" s="58"/>
       <c r="G204" s="59"/>
@@ -7123,12 +7268,12 @@
       <c r="G209" s="34"/>
     </row>
     <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="206" t="s">
+      <c r="A210" s="159" t="s">
         <v>216</v>
       </c>
-      <c r="B210" s="207"/>
-      <c r="C210" s="207"/>
-      <c r="D210" s="208"/>
+      <c r="B210" s="160"/>
+      <c r="C210" s="160"/>
+      <c r="D210" s="161"/>
       <c r="E210" s="58"/>
       <c r="F210" s="58"/>
       <c r="G210" s="59"/>
@@ -7197,12 +7342,12 @@
       <c r="G213" s="34"/>
     </row>
     <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="206" t="s">
+      <c r="A214" s="159" t="s">
         <v>205</v>
       </c>
-      <c r="B214" s="207"/>
-      <c r="C214" s="207"/>
-      <c r="D214" s="208"/>
+      <c r="B214" s="160"/>
+      <c r="C214" s="160"/>
+      <c r="D214" s="161"/>
       <c r="E214" s="58"/>
       <c r="F214" s="58"/>
       <c r="G214" s="59"/>
@@ -7217,10 +7362,10 @@
         <v>206</v>
       </c>
       <c r="D215" s="29"/>
-      <c r="E215" s="219">
+      <c r="E215" s="162">
         <v>183000</v>
       </c>
-      <c r="F215" s="159">
+      <c r="F215" s="200">
         <f>E215*90%</f>
         <v>164700</v>
       </c>
@@ -7236,8 +7381,8 @@
         <v>207</v>
       </c>
       <c r="D216" s="29"/>
-      <c r="E216" s="220"/>
-      <c r="F216" s="160"/>
+      <c r="E216" s="163"/>
+      <c r="F216" s="201"/>
       <c r="G216" s="34"/>
     </row>
     <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -7250,8 +7395,8 @@
         <v>208</v>
       </c>
       <c r="D217" s="29"/>
-      <c r="E217" s="220"/>
-      <c r="F217" s="160"/>
+      <c r="E217" s="163"/>
+      <c r="F217" s="201"/>
       <c r="G217" s="34"/>
     </row>
     <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -7264,17 +7409,17 @@
         <v>209</v>
       </c>
       <c r="D218" s="29"/>
-      <c r="E218" s="221"/>
-      <c r="F218" s="161"/>
+      <c r="E218" s="164"/>
+      <c r="F218" s="202"/>
       <c r="G218" s="34"/>
     </row>
     <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="206" t="s">
+      <c r="A219" s="159" t="s">
         <v>403</v>
       </c>
-      <c r="B219" s="207"/>
-      <c r="C219" s="207"/>
-      <c r="D219" s="208"/>
+      <c r="B219" s="160"/>
+      <c r="C219" s="160"/>
+      <c r="D219" s="161"/>
       <c r="E219" s="58"/>
       <c r="F219" s="58"/>
       <c r="G219" s="59"/>
@@ -7355,8 +7500,10 @@
       </c>
       <c r="G223" s="34"/>
     </row>
-    <row r="224" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="81"/>
+    <row r="224" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="219" t="s">
+        <v>423</v>
+      </c>
       <c r="B224" s="82"/>
       <c r="C224" s="81"/>
       <c r="D224" s="81"/>
@@ -7378,22 +7525,22 @@
       <c r="B226" s="82"/>
       <c r="C226" s="81"/>
       <c r="D226" s="81"/>
-      <c r="E226" s="162" t="s">
+      <c r="E226" s="203" t="s">
         <v>422</v>
       </c>
-      <c r="F226" s="163"/>
-      <c r="G226" s="164"/>
+      <c r="F226" s="204"/>
+      <c r="G226" s="205"/>
     </row>
     <row r="227" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="81"/>
       <c r="B227" s="82"/>
       <c r="C227" s="81"/>
       <c r="D227" s="81"/>
-      <c r="E227" s="165" t="s">
+      <c r="E227" s="206" t="s">
         <v>421</v>
       </c>
-      <c r="F227" s="166"/>
-      <c r="G227" s="167"/>
+      <c r="F227" s="207"/>
+      <c r="G227" s="208"/>
     </row>
     <row r="228" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="81"/>
@@ -7486,70 +7633,70 @@
       <c r="G237" s="84"/>
     </row>
     <row r="238" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="216" t="s">
+      <c r="A238" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="B238" s="216"/>
-      <c r="C238" s="216"/>
-      <c r="D238" s="216"/>
+      <c r="B238" s="153"/>
+      <c r="C238" s="153"/>
+      <c r="D238" s="153"/>
       <c r="E238" s="24"/>
       <c r="F238" s="24"/>
       <c r="G238" s="85"/>
     </row>
     <row r="239" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="86"/>
-      <c r="B239" s="222" t="s">
+      <c r="B239" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="C239" s="222"/>
-      <c r="D239" s="222"/>
-      <c r="E239" s="222"/>
-      <c r="F239" s="222"/>
-      <c r="G239" s="222"/>
+      <c r="C239" s="151"/>
+      <c r="D239" s="151"/>
+      <c r="E239" s="151"/>
+      <c r="F239" s="151"/>
+      <c r="G239" s="151"/>
     </row>
     <row r="240" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A240" s="86"/>
-      <c r="B240" s="222" t="s">
+      <c r="B240" s="151" t="s">
         <v>408</v>
       </c>
-      <c r="C240" s="222"/>
-      <c r="D240" s="222"/>
-      <c r="E240" s="222"/>
-      <c r="F240" s="222"/>
-      <c r="G240" s="222"/>
+      <c r="C240" s="151"/>
+      <c r="D240" s="151"/>
+      <c r="E240" s="151"/>
+      <c r="F240" s="151"/>
+      <c r="G240" s="151"/>
     </row>
     <row r="241" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="87"/>
-      <c r="B241" s="222" t="s">
+      <c r="B241" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="C241" s="222"/>
-      <c r="D241" s="222"/>
-      <c r="E241" s="222"/>
-      <c r="F241" s="222"/>
-      <c r="G241" s="222"/>
+      <c r="C241" s="151"/>
+      <c r="D241" s="151"/>
+      <c r="E241" s="151"/>
+      <c r="F241" s="151"/>
+      <c r="G241" s="151"/>
     </row>
     <row r="242" spans="1:7" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="88"/>
-      <c r="B242" s="223" t="s">
+      <c r="B242" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="C242" s="223"/>
-      <c r="D242" s="223"/>
-      <c r="E242" s="223"/>
-      <c r="F242" s="223"/>
-      <c r="G242" s="223"/>
+      <c r="C242" s="152"/>
+      <c r="D242" s="152"/>
+      <c r="E242" s="152"/>
+      <c r="F242" s="152"/>
+      <c r="G242" s="152"/>
     </row>
     <row r="243" spans="1:7" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="85"/>
-      <c r="B243" s="222" t="s">
+      <c r="B243" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C243" s="222"/>
-      <c r="D243" s="222"/>
-      <c r="E243" s="222"/>
-      <c r="F243" s="222"/>
-      <c r="G243" s="222"/>
+      <c r="C243" s="151"/>
+      <c r="D243" s="151"/>
+      <c r="E243" s="151"/>
+      <c r="F243" s="151"/>
+      <c r="G243" s="151"/>
     </row>
     <row r="244" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" s="85"/>
@@ -7619,43 +7766,67 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A238:D238"/>
     <mergeCell ref="B239:G239"/>
     <mergeCell ref="B240:G240"/>
     <mergeCell ref="B241:G241"/>
     <mergeCell ref="B242:G242"/>
     <mergeCell ref="B243:G243"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="E215:E218"/>
+    <mergeCell ref="F215:F218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="E227:G227"/>
     <mergeCell ref="A186:D186"/>
     <mergeCell ref="G188:G189"/>
     <mergeCell ref="A194:D194"/>
     <mergeCell ref="A196:D196"/>
     <mergeCell ref="A204:D204"/>
     <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="E215:E218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B148:B177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="B181:B182"/>
     <mergeCell ref="A183:D183"/>
+    <mergeCell ref="G184:G185"/>
     <mergeCell ref="B110:B111"/>
     <mergeCell ref="B113:B126"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A130:D130"/>
     <mergeCell ref="B131:B135"/>
     <mergeCell ref="B136:B141"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B148:B177"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="B79:B88"/>
     <mergeCell ref="A93:D93"/>
     <mergeCell ref="B94:B101"/>
     <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="B29:B32"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B41:B43"/>
     <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="D1:G5"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="B9:G9"/>
@@ -7664,16 +7835,4776 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="C15:C20"/>
-    <mergeCell ref="B29:B32"/>
     <mergeCell ref="E15:E20"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="G26:G27"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4EFAC-5358-4031-B8BC-663929F6ADDF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K249"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A217" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="179" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="181" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="182" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="186"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="189" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="189"/>
+      <c r="D13" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="F13" s="112" t="s">
+        <v>415</v>
+      </c>
+      <c r="G13" s="112" t="s">
+        <v>418</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="113"/>
+    </row>
+    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="144" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="142"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F14" s="115" t="s">
+        <v>413</v>
+      </c>
+      <c r="G14" s="115" t="s">
+        <v>413</v>
+      </c>
+      <c r="H14" s="141"/>
+    </row>
+    <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="190">
+        <f>IF(LEN(C15)=0,"",COUNTA($C$15:C15))</f>
+        <v>1</v>
+      </c>
+      <c r="B15" s="177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="191" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="193">
+        <v>150000</v>
+      </c>
+      <c r="F15" s="198" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" s="198" t="s">
+        <v>425</v>
+      </c>
+      <c r="H15" s="194"/>
+      <c r="I15" s="116"/>
+    </row>
+    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="190"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="193"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="116"/>
+    </row>
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="190"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="193"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="116"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="190"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="193"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="190"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" s="193"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="190"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="193"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <f>IF(LEN(C21)=0,"",COUNTA($C$15:C21))</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="120">
+        <v>86000</v>
+      </c>
+      <c r="F21" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G21" s="120">
+        <v>86000</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" s="149" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A22" s="146">
+        <v>3</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="150">
+        <v>70000</v>
+      </c>
+      <c r="F22" s="150">
+        <v>70000</v>
+      </c>
+      <c r="G22" s="150">
+        <v>70000</v>
+      </c>
+      <c r="H22" s="147"/>
+      <c r="I22" s="148"/>
+    </row>
+    <row r="23" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <f>IF(LEN(C23)=0,"",COUNTA($C$15:C23))</f>
+        <v>4</v>
+      </c>
+      <c r="B23" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="120">
+        <v>50000</v>
+      </c>
+      <c r="F23" s="120">
+        <v>50000</v>
+      </c>
+      <c r="G23" s="120">
+        <v>50000</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <f>IF(LEN(C24)=0,"",COUNTA($C$15:C24))</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="120">
+        <v>64000</v>
+      </c>
+      <c r="F24" s="120">
+        <v>64000</v>
+      </c>
+      <c r="G24" s="120">
+        <v>64000</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <f>IF(LEN(C25)=0,"",COUNTA($C$15:C25))</f>
+        <v>6</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="120">
+        <v>22000</v>
+      </c>
+      <c r="F25" s="120">
+        <v>22000</v>
+      </c>
+      <c r="G25" s="120">
+        <v>22000</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <f>IF(LEN(C26)=0,"",COUNTA($C$15:C26))</f>
+        <v>7</v>
+      </c>
+      <c r="B26" s="177" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="195">
+        <v>50000</v>
+      </c>
+      <c r="F26" s="195">
+        <v>50000</v>
+      </c>
+      <c r="G26" s="195">
+        <v>50000</v>
+      </c>
+      <c r="H26" s="197" t="s">
+        <v>372</v>
+      </c>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <f>IF(LEN(C27)=0,"",COUNTA($C$15:C27))</f>
+        <v>8</v>
+      </c>
+      <c r="B27" s="177"/>
+      <c r="C27" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <f>IF(LEN(C28)=0,"",COUNTA($C$15:C28))</f>
+        <v>9</v>
+      </c>
+      <c r="B28" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="121">
+        <v>34000</v>
+      </c>
+      <c r="F28" s="121">
+        <v>34000</v>
+      </c>
+      <c r="G28" s="121">
+        <v>34000</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <f>IF(LEN(C29)=0,"",COUNTA($C$15:C29))</f>
+        <v>10</v>
+      </c>
+      <c r="B29" s="192" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="121">
+        <v>50000</v>
+      </c>
+      <c r="F29" s="121">
+        <v>50000</v>
+      </c>
+      <c r="G29" s="121">
+        <v>50000</v>
+      </c>
+      <c r="H29" s="123"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <f>IF(LEN(C30)=0,"",COUNTA($C$15:C30))</f>
+        <v>11</v>
+      </c>
+      <c r="B30" s="192"/>
+      <c r="C30" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="121">
+        <v>50000</v>
+      </c>
+      <c r="F30" s="121">
+        <v>50000</v>
+      </c>
+      <c r="G30" s="121">
+        <v>50000</v>
+      </c>
+      <c r="H30" s="123"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <f>IF(LEN(C31)=0,"",COUNTA($C$15:C31))</f>
+        <v>12</v>
+      </c>
+      <c r="B31" s="192"/>
+      <c r="C31" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="121">
+        <v>39000</v>
+      </c>
+      <c r="F31" s="121">
+        <v>39000</v>
+      </c>
+      <c r="G31" s="121">
+        <v>39000</v>
+      </c>
+      <c r="H31" s="123"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <f>IF(LEN(C32)=0,"",COUNTA($C$15:C32))</f>
+        <v>13</v>
+      </c>
+      <c r="B32" s="192"/>
+      <c r="C32" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="121">
+        <v>34000</v>
+      </c>
+      <c r="F32" s="121">
+        <v>34000</v>
+      </c>
+      <c r="G32" s="121">
+        <v>34000</v>
+      </c>
+      <c r="H32" s="123"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <f>IF(LEN(C33)=0,"",COUNTA($C$15:C33))</f>
+        <v>14</v>
+      </c>
+      <c r="B33" s="124"/>
+      <c r="C33" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="121">
+        <v>60000</v>
+      </c>
+      <c r="F33" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G33" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="H33" s="123"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <f>IF(LEN(C34)=0,"",COUNTA($C$15:C34))</f>
+        <v>15</v>
+      </c>
+      <c r="B34" s="124"/>
+      <c r="C34" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E34" s="133">
+        <v>109000</v>
+      </c>
+      <c r="F34" s="133">
+        <v>109000</v>
+      </c>
+      <c r="G34" s="133">
+        <v>109000</v>
+      </c>
+      <c r="H34" s="123"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <f>IF(LEN(C35)=0,"",COUNTA($C$15:C35))</f>
+        <v>16</v>
+      </c>
+      <c r="B35" s="177" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F35" s="121">
+        <v>34000</v>
+      </c>
+      <c r="G35" s="121">
+        <v>34000</v>
+      </c>
+      <c r="H35" s="99" t="s">
+        <v>369</v>
+      </c>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <f>IF(LEN(C36)=0,"",COUNTA($C$15:C36))</f>
+        <v>17</v>
+      </c>
+      <c r="B36" s="177"/>
+      <c r="C36" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F36" s="121">
+        <v>34000</v>
+      </c>
+      <c r="G36" s="121">
+        <v>34000</v>
+      </c>
+      <c r="H36" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <f>IF(LEN(C37)=0,"",COUNTA($C$15:C37))</f>
+        <v>18</v>
+      </c>
+      <c r="B37" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F37" s="121">
+        <v>34000</v>
+      </c>
+      <c r="G37" s="121">
+        <v>34000</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <f>IF(LEN(C38)=0,"",COUNTA($C$15:C38))</f>
+        <v>19</v>
+      </c>
+      <c r="B38" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F38" s="121">
+        <v>34000</v>
+      </c>
+      <c r="G38" s="121">
+        <v>34000</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:11" s="126" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
+        <f>IF(LEN(C39)=0,"",COUNTA($C$15:C39))</f>
+        <v>20</v>
+      </c>
+      <c r="B39" s="117"/>
+      <c r="C39" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F39" s="121">
+        <v>159000</v>
+      </c>
+      <c r="G39" s="121">
+        <v>159000</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <f>IF(LEN(C40)=0,"",COUNTA($C$15:C40))</f>
+        <v>21</v>
+      </c>
+      <c r="B40" s="117"/>
+      <c r="C40" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F40" s="121">
+        <v>250000</v>
+      </c>
+      <c r="G40" s="121">
+        <v>250000</v>
+      </c>
+      <c r="H40" s="123"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
+        <f>IF(LEN(C41)=0,"",COUNTA($C$15:C41))</f>
+        <v>22</v>
+      </c>
+      <c r="B41" s="173" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="178" t="s">
+        <v>387</v>
+      </c>
+      <c r="E41" s="121">
+        <v>120000</v>
+      </c>
+      <c r="F41" s="121">
+        <v>120000</v>
+      </c>
+      <c r="G41" s="121">
+        <v>120000</v>
+      </c>
+      <c r="H41" s="199" t="s">
+        <v>371</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31">
+        <f>IF(LEN(C42)=0,"",COUNTA($C$15:C42))</f>
+        <v>23</v>
+      </c>
+      <c r="B42" s="174"/>
+      <c r="C42" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="178"/>
+      <c r="E42" s="121">
+        <v>120000</v>
+      </c>
+      <c r="F42" s="121">
+        <v>120000</v>
+      </c>
+      <c r="G42" s="121">
+        <v>120000</v>
+      </c>
+      <c r="H42" s="157"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31">
+        <f>IF(LEN(C43)=0,"",COUNTA($C$15:C43))</f>
+        <v>24</v>
+      </c>
+      <c r="B43" s="174"/>
+      <c r="C43" s="127" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="66"/>
+      <c r="E43" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F43" s="121">
+        <v>177000</v>
+      </c>
+      <c r="G43" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="H43" s="158"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="31">
+        <f>IF(LEN(C44)=0,"",COUNTA($C$15:C44))</f>
+        <v>25</v>
+      </c>
+      <c r="B44" s="209"/>
+      <c r="C44" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="121">
+        <v>150000</v>
+      </c>
+      <c r="F44" s="121">
+        <v>150000</v>
+      </c>
+      <c r="G44" s="121">
+        <v>150000</v>
+      </c>
+      <c r="H44" s="34"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
+        <f>IF(LEN(C45)=0,"",COUNTA($C$15:C45))</f>
+        <v>26</v>
+      </c>
+      <c r="B45" s="209"/>
+      <c r="C45" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" s="98" t="s">
+        <v>321</v>
+      </c>
+      <c r="E45" s="121">
+        <v>150000</v>
+      </c>
+      <c r="F45" s="121">
+        <v>150000</v>
+      </c>
+      <c r="G45" s="121">
+        <v>150000</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="31">
+        <f>IF(LEN(C46)=0,"",COUNTA($C$15:C46))</f>
+        <v>27</v>
+      </c>
+      <c r="B46" s="210"/>
+      <c r="C46" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="134">
+        <v>150000</v>
+      </c>
+      <c r="F46" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G46" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="31">
+        <f>IF(LEN(C47)=0,"",COUNTA($C$15:C47))</f>
+        <v>28</v>
+      </c>
+      <c r="B47" s="122"/>
+      <c r="C47" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="134">
+        <v>200000</v>
+      </c>
+      <c r="F47" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G47" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="H47" s="34"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="31">
+        <f>IF(LEN(C48)=0,"",COUNTA($C$15:C48))</f>
+        <v>29</v>
+      </c>
+      <c r="B48" s="122"/>
+      <c r="C48" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="134">
+        <v>250000</v>
+      </c>
+      <c r="F48" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G48" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="H48" s="34"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="31">
+        <f>IF(LEN(C49)=0,"",COUNTA($C$15:C49))</f>
+        <v>30</v>
+      </c>
+      <c r="B49" s="122"/>
+      <c r="C49" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="E49" s="121">
+        <v>150000</v>
+      </c>
+      <c r="F49" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G49" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="H49" s="34"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A50" s="31">
+        <f>IF(LEN(C50)=0,"",COUNTA($C$15:C50))</f>
+        <v>31</v>
+      </c>
+      <c r="B50" s="122"/>
+      <c r="C50" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="129" t="s">
+        <v>413</v>
+      </c>
+      <c r="F50" s="129" t="s">
+        <v>413</v>
+      </c>
+      <c r="G50" s="129" t="s">
+        <v>413</v>
+      </c>
+      <c r="H50" s="34"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" s="149" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A51" s="31">
+        <f>IF(LEN(C51)=0,"",COUNTA($C$15:C51))</f>
+        <v>32</v>
+      </c>
+      <c r="B51" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="118" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" s="118" t="s">
+        <v>324</v>
+      </c>
+      <c r="E51" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F51" s="119">
+        <v>560000</v>
+      </c>
+      <c r="G51" s="119"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="148"/>
+    </row>
+    <row r="52" spans="1:9" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31">
+        <f>IF(LEN(C52)=0,"",COUNTA($C$15:C52))</f>
+        <v>33</v>
+      </c>
+      <c r="B52" s="130" t="s">
+        <v>412</v>
+      </c>
+      <c r="C52" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F52" s="128">
+        <v>200000</v>
+      </c>
+      <c r="G52" s="128">
+        <v>200000</v>
+      </c>
+      <c r="H52" s="95"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="31">
+        <f>IF(LEN(C53)=0,"",COUNTA($C$15:C53))</f>
+        <v>34</v>
+      </c>
+      <c r="B53" s="131"/>
+      <c r="C53" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F53" s="121">
+        <v>446000</v>
+      </c>
+      <c r="G53" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="H53" s="34"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31">
+        <f>IF(LEN(C54)=0,"",COUNTA($C$15:C54))</f>
+        <v>35</v>
+      </c>
+      <c r="B54" s="114"/>
+      <c r="C54" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="E54" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F54" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G54" s="115">
+        <v>83000</v>
+      </c>
+      <c r="H54" s="141"/>
+    </row>
+    <row r="55" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="31">
+        <f>IF(LEN(C55)=0,"",COUNTA($C$15:C55))</f>
+        <v>36</v>
+      </c>
+      <c r="B55" s="114"/>
+      <c r="C55" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="F55" s="145" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" s="135">
+        <v>1600000</v>
+      </c>
+      <c r="H55" s="141"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="211" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="212"/>
+      <c r="C56" s="212"/>
+      <c r="D56" s="213"/>
+      <c r="E56" s="112">
+        <f>SUM(E15:E55)</f>
+        <v>2158000</v>
+      </c>
+      <c r="F56" s="112">
+        <f>SUM(F15:F55)</f>
+        <v>3040000</v>
+      </c>
+      <c r="G56" s="112">
+        <f>SUM(G15:G55)</f>
+        <v>3626000</v>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="138"/>
+      <c r="G57" s="44"/>
+    </row>
+    <row r="58" spans="1:9" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="47"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="52"/>
+    </row>
+    <row r="60" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="213"/>
+      <c r="D60" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="109" t="s">
+        <v>419</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" s="55"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="59"/>
+    </row>
+    <row r="62" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="31">
+        <f>IF(LEN(C62)=0,"",COUNTA($C$62:C62))</f>
+        <v>1</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="60">
+        <v>169000</v>
+      </c>
+      <c r="F62" s="60">
+        <f>E62*90%</f>
+        <v>152100</v>
+      </c>
+      <c r="G62" s="34"/>
+    </row>
+    <row r="63" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A63" s="31">
+        <f>IF(LEN(C63)=0,"",COUNTA($C$62:C63))</f>
+        <v>2</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="61">
+        <v>47000</v>
+      </c>
+      <c r="F63" s="60">
+        <f t="shared" ref="F63:F128" si="0">E63*90%</f>
+        <v>42300</v>
+      </c>
+      <c r="G63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A64" s="31">
+        <f>IF(LEN(C64)=0,"",COUNTA($C$62:C64))</f>
+        <v>3</v>
+      </c>
+      <c r="B64" s="70"/>
+      <c r="C64" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="61">
+        <v>59000</v>
+      </c>
+      <c r="F64" s="60">
+        <f t="shared" si="0"/>
+        <v>53100</v>
+      </c>
+      <c r="G64" s="111"/>
+    </row>
+    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A65" s="31">
+        <f>IF(LEN(C65)=0,"",COUNTA($C$62:C65))</f>
+        <v>4</v>
+      </c>
+      <c r="B65" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="64">
+        <v>102000</v>
+      </c>
+      <c r="F65" s="60">
+        <f t="shared" si="0"/>
+        <v>91800</v>
+      </c>
+      <c r="G65" s="34"/>
+    </row>
+    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31">
+        <f>IF(LEN(C66)=0,"",COUNTA($C$62:C66))</f>
+        <v>5</v>
+      </c>
+      <c r="B66" s="169" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="64">
+        <v>62000</v>
+      </c>
+      <c r="F66" s="60">
+        <f t="shared" si="0"/>
+        <v>55800</v>
+      </c>
+      <c r="G66" s="199" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="31">
+        <f>IF(LEN(C67)=0,"",COUNTA($C$62:C67))</f>
+        <v>6</v>
+      </c>
+      <c r="B67" s="170"/>
+      <c r="C67" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="64">
+        <v>165000</v>
+      </c>
+      <c r="F67" s="60">
+        <f t="shared" si="0"/>
+        <v>148500</v>
+      </c>
+      <c r="G67" s="157"/>
+    </row>
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="31">
+        <f>IF(LEN(C68)=0,"",COUNTA($C$62:C68))</f>
+        <v>7</v>
+      </c>
+      <c r="B68" s="171"/>
+      <c r="C68" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" s="64">
+        <v>116000</v>
+      </c>
+      <c r="F68" s="60">
+        <f t="shared" si="0"/>
+        <v>104400</v>
+      </c>
+      <c r="G68" s="158"/>
+    </row>
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="31">
+        <f>IF(LEN(C69)=0,"",COUNTA($C$62:C69))</f>
+        <v>8</v>
+      </c>
+      <c r="B69" s="169" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="64">
+        <v>83000</v>
+      </c>
+      <c r="F69" s="60">
+        <f t="shared" si="0"/>
+        <v>74700</v>
+      </c>
+      <c r="G69" s="34"/>
+    </row>
+    <row r="70" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="31">
+        <f>IF(LEN(C70)=0,"",COUNTA($C$62:C70))</f>
+        <v>9</v>
+      </c>
+      <c r="B70" s="170"/>
+      <c r="C70" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="64">
+        <v>130000</v>
+      </c>
+      <c r="F70" s="60">
+        <f t="shared" si="0"/>
+        <v>117000</v>
+      </c>
+      <c r="G70" s="199" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="31">
+        <f>IF(LEN(C71)=0,"",COUNTA($C$62:C71))</f>
+        <v>10</v>
+      </c>
+      <c r="B71" s="170"/>
+      <c r="C71" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" s="64">
+        <v>120000</v>
+      </c>
+      <c r="F71" s="60">
+        <f t="shared" si="0"/>
+        <v>108000</v>
+      </c>
+      <c r="G71" s="157"/>
+    </row>
+    <row r="72" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="31">
+        <f>IF(LEN(C72)=0,"",COUNTA($C$62:C72))</f>
+        <v>11</v>
+      </c>
+      <c r="B72" s="171"/>
+      <c r="C72" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" s="64">
+        <v>282000</v>
+      </c>
+      <c r="F72" s="60">
+        <f t="shared" si="0"/>
+        <v>253800</v>
+      </c>
+      <c r="G72" s="158"/>
+    </row>
+    <row r="73" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="31">
+        <f>IF(LEN(C73)=0,"",COUNTA($C$62:C73))</f>
+        <v>12</v>
+      </c>
+      <c r="B73" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="64">
+        <v>128000</v>
+      </c>
+      <c r="F73" s="60">
+        <f t="shared" si="0"/>
+        <v>115200</v>
+      </c>
+      <c r="G73" s="34"/>
+    </row>
+    <row r="74" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="31">
+        <f>IF(LEN(C74)=0,"",COUNTA($C$62:C74))</f>
+        <v>13</v>
+      </c>
+      <c r="B74" s="100"/>
+      <c r="C74" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="60">
+        <v>138000</v>
+      </c>
+      <c r="F74" s="60">
+        <f t="shared" si="0"/>
+        <v>124200</v>
+      </c>
+      <c r="G74" s="110"/>
+    </row>
+    <row r="75" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="31">
+        <f>IF(LEN(C75)=0,"",COUNTA($C$62:C75))</f>
+        <v>14</v>
+      </c>
+      <c r="B75" s="100" t="s">
+        <v>380</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="E75" s="60">
+        <v>282000</v>
+      </c>
+      <c r="F75" s="60">
+        <f t="shared" si="0"/>
+        <v>253800</v>
+      </c>
+      <c r="G75" s="101"/>
+    </row>
+    <row r="76" spans="1:7" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="31">
+        <f>IF(LEN(C76)=0,"",COUNTA($C$62:C76))</f>
+        <v>15</v>
+      </c>
+      <c r="B76" s="216" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" s="64">
+        <v>30000</v>
+      </c>
+      <c r="F76" s="60">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="G76" s="217" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="31">
+        <f>IF(LEN(C77)=0,"",COUNTA($C$62:C77))</f>
+        <v>16</v>
+      </c>
+      <c r="B77" s="216"/>
+      <c r="C77" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" s="64">
+        <v>20000</v>
+      </c>
+      <c r="F77" s="60">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="G77" s="218"/>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="159" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="160"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="59"/>
+    </row>
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A79" s="31">
+        <f>IF(LEN(C79)=0,"",COUNTA($C$62:C79))</f>
+        <v>17</v>
+      </c>
+      <c r="B79" s="173" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="33">
+        <v>174000</v>
+      </c>
+      <c r="F79" s="60">
+        <f t="shared" si="0"/>
+        <v>156600</v>
+      </c>
+      <c r="G79" s="34"/>
+    </row>
+    <row r="80" spans="1:7" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A80" s="31">
+        <f>IF(LEN(C80)=0,"",COUNTA($C$62:C80))</f>
+        <v>18</v>
+      </c>
+      <c r="B80" s="174"/>
+      <c r="C80" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="97">
+        <v>231000</v>
+      </c>
+      <c r="F80" s="60">
+        <f t="shared" si="0"/>
+        <v>207900</v>
+      </c>
+      <c r="G80" s="34"/>
+    </row>
+    <row r="81" spans="1:7" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A81" s="31">
+        <f>IF(LEN(C81)=0,"",COUNTA($C$62:C81))</f>
+        <v>19</v>
+      </c>
+      <c r="B81" s="174"/>
+      <c r="C81" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="33">
+        <v>732000</v>
+      </c>
+      <c r="F81" s="60">
+        <f t="shared" si="0"/>
+        <v>658800</v>
+      </c>
+      <c r="G81" s="34"/>
+    </row>
+    <row r="82" spans="1:7" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A82" s="31">
+        <f>IF(LEN(C82)=0,"",COUNTA($C$62:C82))</f>
+        <v>20</v>
+      </c>
+      <c r="B82" s="174"/>
+      <c r="C82" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="33">
+        <v>192000</v>
+      </c>
+      <c r="F82" s="60">
+        <f t="shared" si="0"/>
+        <v>172800</v>
+      </c>
+      <c r="G82" s="34"/>
+    </row>
+    <row r="83" spans="1:7" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="31">
+        <f>IF(LEN(C83)=0,"",COUNTA($C$62:C83))</f>
+        <v>21</v>
+      </c>
+      <c r="B83" s="174"/>
+      <c r="C83" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="E83" s="97">
+        <v>231000</v>
+      </c>
+      <c r="F83" s="60">
+        <f t="shared" si="0"/>
+        <v>207900</v>
+      </c>
+      <c r="G83" s="99" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="31">
+        <f>IF(LEN(C84)=0,"",COUNTA($C$62:C84))</f>
+        <v>22</v>
+      </c>
+      <c r="B84" s="174"/>
+      <c r="C84" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="E84" s="106">
+        <v>500000</v>
+      </c>
+      <c r="F84" s="60">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+      <c r="G84" s="34"/>
+    </row>
+    <row r="85" spans="1:7" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="31">
+        <f>IF(LEN(C85)=0,"",COUNTA($C$62:C85))</f>
+        <v>23</v>
+      </c>
+      <c r="B85" s="174"/>
+      <c r="C85" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="33">
+        <v>231000</v>
+      </c>
+      <c r="F85" s="60">
+        <f t="shared" si="0"/>
+        <v>207900</v>
+      </c>
+      <c r="G85" s="34"/>
+    </row>
+    <row r="86" spans="1:7" s="12" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="31">
+        <f>IF(LEN(C86)=0,"",COUNTA($C$62:C86))</f>
+        <v>24</v>
+      </c>
+      <c r="B86" s="174"/>
+      <c r="C86" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" s="33">
+        <v>616000</v>
+      </c>
+      <c r="F86" s="60">
+        <f t="shared" si="0"/>
+        <v>554400</v>
+      </c>
+      <c r="G86" s="34"/>
+    </row>
+    <row r="87" spans="1:7" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="31">
+        <f>IF(LEN(C87)=0,"",COUNTA($C$62:C87))</f>
+        <v>25</v>
+      </c>
+      <c r="B87" s="174"/>
+      <c r="C87" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="97">
+        <v>231000</v>
+      </c>
+      <c r="F87" s="60">
+        <f t="shared" si="0"/>
+        <v>207900</v>
+      </c>
+      <c r="G87" s="34"/>
+    </row>
+    <row r="88" spans="1:7" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="31">
+        <f>IF(LEN(C88)=0,"",COUNTA($C$62:C88))</f>
+        <v>26</v>
+      </c>
+      <c r="B88" s="175"/>
+      <c r="C88" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="33">
+        <v>412000</v>
+      </c>
+      <c r="F88" s="60">
+        <f t="shared" si="0"/>
+        <v>370800</v>
+      </c>
+      <c r="G88" s="34"/>
+    </row>
+    <row r="89" spans="1:7" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="31">
+        <f>IF(LEN(C89)=0,"",COUNTA($C$62:C89))</f>
+        <v>27</v>
+      </c>
+      <c r="B89" s="173" t="s">
+        <v>388</v>
+      </c>
+      <c r="C89" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="D89" s="214" t="s">
+        <v>391</v>
+      </c>
+      <c r="E89" s="33">
+        <v>215000</v>
+      </c>
+      <c r="F89" s="60">
+        <f t="shared" si="0"/>
+        <v>193500</v>
+      </c>
+      <c r="G89" s="95"/>
+    </row>
+    <row r="90" spans="1:7" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="31">
+        <f>IF(LEN(C90)=0,"",COUNTA($C$62:C90))</f>
+        <v>28</v>
+      </c>
+      <c r="B90" s="174"/>
+      <c r="C90" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="D90" s="215"/>
+      <c r="E90" s="33">
+        <v>323000</v>
+      </c>
+      <c r="F90" s="60">
+        <f t="shared" si="0"/>
+        <v>290700</v>
+      </c>
+      <c r="G90" s="95"/>
+    </row>
+    <row r="91" spans="1:7" s="12" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="31">
+        <f>IF(LEN(C91)=0,"",COUNTA($C$62:C91))</f>
+        <v>29</v>
+      </c>
+      <c r="B91" s="174"/>
+      <c r="C91" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="D91" s="102" t="s">
+        <v>392</v>
+      </c>
+      <c r="E91" s="33">
+        <v>269000</v>
+      </c>
+      <c r="F91" s="60">
+        <f t="shared" si="0"/>
+        <v>242100</v>
+      </c>
+      <c r="G91" s="95"/>
+    </row>
+    <row r="92" spans="1:7" s="12" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A92" s="31">
+        <f>IF(LEN(C92)=0,"",COUNTA($C$62:C92))</f>
+        <v>30</v>
+      </c>
+      <c r="B92" s="175"/>
+      <c r="C92" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="D92" s="102" t="s">
+        <v>395</v>
+      </c>
+      <c r="E92" s="33">
+        <v>588000</v>
+      </c>
+      <c r="F92" s="60">
+        <f t="shared" si="0"/>
+        <v>529200</v>
+      </c>
+      <c r="G92" s="95"/>
+    </row>
+    <row r="93" spans="1:7" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="159" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" s="160"/>
+      <c r="C93" s="160"/>
+      <c r="D93" s="161"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="59"/>
+    </row>
+    <row r="94" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="31">
+        <f>IF(LEN(C94)=0,"",COUNTA($C$62:C94))</f>
+        <v>31</v>
+      </c>
+      <c r="B94" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94" s="64">
+        <v>123000</v>
+      </c>
+      <c r="F94" s="60">
+        <f t="shared" si="0"/>
+        <v>110700</v>
+      </c>
+      <c r="G94" s="34"/>
+    </row>
+    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A95" s="31">
+        <f>IF(LEN(C95)=0,"",COUNTA($C$62:C95))</f>
+        <v>32</v>
+      </c>
+      <c r="B95" s="176"/>
+      <c r="C95" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="64">
+        <v>66000</v>
+      </c>
+      <c r="F95" s="60">
+        <f t="shared" si="0"/>
+        <v>59400</v>
+      </c>
+      <c r="G95" s="34"/>
+    </row>
+    <row r="96" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A96" s="31">
+        <f>IF(LEN(C96)=0,"",COUNTA($C$62:C96))</f>
+        <v>33</v>
+      </c>
+      <c r="B96" s="176"/>
+      <c r="C96" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="64">
+        <v>139000</v>
+      </c>
+      <c r="F96" s="60">
+        <f t="shared" si="0"/>
+        <v>125100</v>
+      </c>
+      <c r="G96" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A97" s="31">
+        <f>IF(LEN(C97)=0,"",COUNTA($C$62:C97))</f>
+        <v>34</v>
+      </c>
+      <c r="B97" s="176"/>
+      <c r="C97" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="64">
+        <v>66000</v>
+      </c>
+      <c r="F97" s="60">
+        <f t="shared" si="0"/>
+        <v>59400</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="31">
+        <f>IF(LEN(C98)=0,"",COUNTA($C$62:C98))</f>
+        <v>35</v>
+      </c>
+      <c r="B98" s="176"/>
+      <c r="C98" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E98" s="64">
+        <v>212000</v>
+      </c>
+      <c r="F98" s="60">
+        <f t="shared" si="0"/>
+        <v>190800</v>
+      </c>
+      <c r="G98" s="34"/>
+    </row>
+    <row r="99" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="31">
+        <f>IF(LEN(C99)=0,"",COUNTA($C$62:C99))</f>
+        <v>36</v>
+      </c>
+      <c r="B99" s="176"/>
+      <c r="C99" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E99" s="64">
+        <v>868000</v>
+      </c>
+      <c r="F99" s="60">
+        <f t="shared" si="0"/>
+        <v>781200</v>
+      </c>
+      <c r="G99" s="99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="31">
+        <f>IF(LEN(C100)=0,"",COUNTA($C$62:C100))</f>
+        <v>37</v>
+      </c>
+      <c r="B100" s="176"/>
+      <c r="C100" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="64">
+        <v>139000</v>
+      </c>
+      <c r="F100" s="60">
+        <f t="shared" si="0"/>
+        <v>125100</v>
+      </c>
+      <c r="G100" s="99" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="31">
+        <f>IF(LEN(C101)=0,"",COUNTA($C$62:C101))</f>
+        <v>38</v>
+      </c>
+      <c r="B101" s="176"/>
+      <c r="C101" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="64">
+        <v>72000</v>
+      </c>
+      <c r="F101" s="60">
+        <f t="shared" si="0"/>
+        <v>64800</v>
+      </c>
+      <c r="G101" s="99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A102" s="31">
+        <f>IF(LEN(C102)=0,"",COUNTA($C$62:C102))</f>
+        <v>39</v>
+      </c>
+      <c r="B102" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" s="64">
+        <v>174000</v>
+      </c>
+      <c r="F102" s="60">
+        <f t="shared" si="0"/>
+        <v>156600</v>
+      </c>
+      <c r="G102" s="34"/>
+    </row>
+    <row r="103" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A103" s="31">
+        <f>IF(LEN(C103)=0,"",COUNTA($C$62:C103))</f>
+        <v>40</v>
+      </c>
+      <c r="B103" s="176"/>
+      <c r="C103" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="64">
+        <v>88000</v>
+      </c>
+      <c r="F103" s="60">
+        <f t="shared" si="0"/>
+        <v>79200</v>
+      </c>
+      <c r="G103" s="34"/>
+    </row>
+    <row r="104" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="31">
+        <f>IF(LEN(C104)=0,"",COUNTA($C$62:C104))</f>
+        <v>41</v>
+      </c>
+      <c r="B104" s="165" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E104" s="60">
+        <v>168000</v>
+      </c>
+      <c r="F104" s="60">
+        <f t="shared" si="0"/>
+        <v>151200</v>
+      </c>
+      <c r="G104" s="34"/>
+    </row>
+    <row r="105" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="31">
+        <f>IF(LEN(C105)=0,"",COUNTA($C$62:C105))</f>
+        <v>42</v>
+      </c>
+      <c r="B105" s="166"/>
+      <c r="C105" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" s="60">
+        <v>168000</v>
+      </c>
+      <c r="F105" s="60">
+        <f t="shared" si="0"/>
+        <v>151200</v>
+      </c>
+      <c r="G105" s="34"/>
+    </row>
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="31">
+        <f>IF(LEN(C106)=0,"",COUNTA($C$62:C106))</f>
+        <v>43</v>
+      </c>
+      <c r="B106" s="167"/>
+      <c r="C106" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E106" s="60">
+        <v>253000</v>
+      </c>
+      <c r="F106" s="60">
+        <f t="shared" si="0"/>
+        <v>227700</v>
+      </c>
+      <c r="G106" s="34"/>
+    </row>
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="159" t="s">
+        <v>256</v>
+      </c>
+      <c r="B107" s="160"/>
+      <c r="C107" s="160"/>
+      <c r="D107" s="161"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69"/>
+      <c r="G107" s="59"/>
+    </row>
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="31">
+        <f>IF(LEN(C108)=0,"",COUNTA($C$62:C108))</f>
+        <v>44</v>
+      </c>
+      <c r="B108" s="169" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" s="60">
+        <v>250000</v>
+      </c>
+      <c r="F108" s="60">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+      <c r="G108" s="34"/>
+    </row>
+    <row r="109" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="31">
+        <f>IF(LEN(C109)=0,"",COUNTA($C$62:C109))</f>
+        <v>45</v>
+      </c>
+      <c r="B109" s="171"/>
+      <c r="C109" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="E109" s="60">
+        <v>399000</v>
+      </c>
+      <c r="F109" s="60">
+        <f t="shared" si="0"/>
+        <v>359100</v>
+      </c>
+      <c r="G109" s="34"/>
+    </row>
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="31">
+        <f>IF(LEN(C110)=0,"",COUNTA($C$62:C110))</f>
+        <v>46</v>
+      </c>
+      <c r="B110" s="165" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" s="29"/>
+      <c r="E110" s="60">
+        <v>2500000</v>
+      </c>
+      <c r="F110" s="60">
+        <f t="shared" si="0"/>
+        <v>2250000</v>
+      </c>
+      <c r="G110" s="34"/>
+    </row>
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="31">
+        <f>IF(LEN(C111)=0,"",COUNTA($C$62:C111))</f>
+        <v>47</v>
+      </c>
+      <c r="B111" s="167"/>
+      <c r="C111" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="29"/>
+      <c r="E111" s="60">
+        <v>2200000</v>
+      </c>
+      <c r="F111" s="60">
+        <f t="shared" si="0"/>
+        <v>1980000</v>
+      </c>
+      <c r="G111" s="34"/>
+    </row>
+    <row r="112" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="31">
+        <f>IF(LEN(C112)=0,"",COUNTA($C$62:C112))</f>
+        <v>48</v>
+      </c>
+      <c r="B112" s="94" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="D112" s="29"/>
+      <c r="E112" s="60">
+        <v>250000</v>
+      </c>
+      <c r="F112" s="60">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+      <c r="G112" s="34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="31">
+        <f>IF(LEN(C113)=0,"",COUNTA($C$62:C113))</f>
+        <v>49</v>
+      </c>
+      <c r="B113" s="165" t="s">
+        <v>253</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D113" s="29"/>
+      <c r="E113" s="60">
+        <v>275000</v>
+      </c>
+      <c r="F113" s="60">
+        <f t="shared" si="0"/>
+        <v>247500</v>
+      </c>
+      <c r="G113" s="34"/>
+    </row>
+    <row r="114" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="31">
+        <f>IF(LEN(C114)=0,"",COUNTA($C$62:C114))</f>
+        <v>50</v>
+      </c>
+      <c r="B114" s="166"/>
+      <c r="C114" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D114" s="29"/>
+      <c r="E114" s="60">
+        <v>187000</v>
+      </c>
+      <c r="F114" s="60">
+        <f t="shared" si="0"/>
+        <v>168300</v>
+      </c>
+      <c r="G114" s="34"/>
+    </row>
+    <row r="115" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="31">
+        <f>IF(LEN(C115)=0,"",COUNTA($C$62:C115))</f>
+        <v>51</v>
+      </c>
+      <c r="B115" s="166"/>
+      <c r="C115" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D115" s="29"/>
+      <c r="E115" s="60">
+        <v>187000</v>
+      </c>
+      <c r="F115" s="60">
+        <f t="shared" si="0"/>
+        <v>168300</v>
+      </c>
+      <c r="G115" s="34"/>
+    </row>
+    <row r="116" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="31">
+        <f>IF(LEN(C116)=0,"",COUNTA($C$62:C116))</f>
+        <v>52</v>
+      </c>
+      <c r="B116" s="166"/>
+      <c r="C116" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116" s="29"/>
+      <c r="E116" s="60">
+        <v>189000</v>
+      </c>
+      <c r="F116" s="60">
+        <f t="shared" si="0"/>
+        <v>170100</v>
+      </c>
+      <c r="G116" s="34"/>
+    </row>
+    <row r="117" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="31">
+        <f>IF(LEN(C117)=0,"",COUNTA($C$62:C117))</f>
+        <v>53</v>
+      </c>
+      <c r="B117" s="166"/>
+      <c r="C117" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D117" s="29"/>
+      <c r="E117" s="60">
+        <v>150000</v>
+      </c>
+      <c r="F117" s="60">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="G117" s="34"/>
+    </row>
+    <row r="118" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="31">
+        <f>IF(LEN(C118)=0,"",COUNTA($C$62:C118))</f>
+        <v>54</v>
+      </c>
+      <c r="B118" s="166"/>
+      <c r="C118" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D118" s="29"/>
+      <c r="E118" s="60">
+        <v>189000</v>
+      </c>
+      <c r="F118" s="60">
+        <f t="shared" si="0"/>
+        <v>170100</v>
+      </c>
+      <c r="G118" s="34"/>
+    </row>
+    <row r="119" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="31">
+        <f>IF(LEN(C119)=0,"",COUNTA($C$62:C119))</f>
+        <v>55</v>
+      </c>
+      <c r="B119" s="166"/>
+      <c r="C119" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D119" s="29"/>
+      <c r="E119" s="60">
+        <v>189000</v>
+      </c>
+      <c r="F119" s="60">
+        <f t="shared" si="0"/>
+        <v>170100</v>
+      </c>
+      <c r="G119" s="34"/>
+    </row>
+    <row r="120" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="31">
+        <f>IF(LEN(C120)=0,"",COUNTA($C$62:C120))</f>
+        <v>56</v>
+      </c>
+      <c r="B120" s="166"/>
+      <c r="C120" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D120" s="29"/>
+      <c r="E120" s="60">
+        <v>187000</v>
+      </c>
+      <c r="F120" s="60">
+        <f t="shared" si="0"/>
+        <v>168300</v>
+      </c>
+      <c r="G120" s="34"/>
+    </row>
+    <row r="121" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="31">
+        <f>IF(LEN(C121)=0,"",COUNTA($C$62:C121))</f>
+        <v>57</v>
+      </c>
+      <c r="B121" s="166"/>
+      <c r="C121" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D121" s="29"/>
+      <c r="E121" s="60">
+        <v>201000</v>
+      </c>
+      <c r="F121" s="60">
+        <f t="shared" si="0"/>
+        <v>180900</v>
+      </c>
+      <c r="G121" s="34"/>
+    </row>
+    <row r="122" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="31">
+        <f>IF(LEN(C122)=0,"",COUNTA($C$62:C122))</f>
+        <v>58</v>
+      </c>
+      <c r="B122" s="166"/>
+      <c r="C122" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D122" s="29"/>
+      <c r="E122" s="60">
+        <v>187000</v>
+      </c>
+      <c r="F122" s="60">
+        <f t="shared" si="0"/>
+        <v>168300</v>
+      </c>
+      <c r="G122" s="34"/>
+    </row>
+    <row r="123" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="31">
+        <f>IF(LEN(C123)=0,"",COUNTA($C$62:C123))</f>
+        <v>59</v>
+      </c>
+      <c r="B123" s="166"/>
+      <c r="C123" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" s="29"/>
+      <c r="E123" s="60">
+        <v>187000</v>
+      </c>
+      <c r="F123" s="60">
+        <f t="shared" si="0"/>
+        <v>168300</v>
+      </c>
+      <c r="G123" s="34"/>
+    </row>
+    <row r="124" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="31">
+        <f>IF(LEN(C124)=0,"",COUNTA($C$62:C124))</f>
+        <v>60</v>
+      </c>
+      <c r="B124" s="166"/>
+      <c r="C124" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" s="29"/>
+      <c r="E124" s="60">
+        <v>132000</v>
+      </c>
+      <c r="F124" s="60">
+        <f t="shared" si="0"/>
+        <v>118800</v>
+      </c>
+      <c r="G124" s="34"/>
+    </row>
+    <row r="125" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="31">
+        <f>IF(LEN(C125)=0,"",COUNTA($C$62:C125))</f>
+        <v>61</v>
+      </c>
+      <c r="B125" s="166"/>
+      <c r="C125" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="D125" s="29"/>
+      <c r="E125" s="60">
+        <v>187000</v>
+      </c>
+      <c r="F125" s="60">
+        <f t="shared" si="0"/>
+        <v>168300</v>
+      </c>
+      <c r="G125" s="34"/>
+    </row>
+    <row r="126" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="31">
+        <f>IF(LEN(C126)=0,"",COUNTA($C$62:C126))</f>
+        <v>62</v>
+      </c>
+      <c r="B126" s="167"/>
+      <c r="C126" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126" s="29"/>
+      <c r="E126" s="60">
+        <v>1073000</v>
+      </c>
+      <c r="F126" s="60">
+        <f t="shared" si="0"/>
+        <v>965700</v>
+      </c>
+      <c r="G126" s="34"/>
+    </row>
+    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" s="160"/>
+      <c r="C127" s="160"/>
+      <c r="D127" s="161"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="59"/>
+    </row>
+    <row r="128" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="31">
+        <f>IF(LEN(C128)=0,"",COUNTA($C$62:C128))</f>
+        <v>63</v>
+      </c>
+      <c r="B128" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E128" s="60">
+        <v>50000</v>
+      </c>
+      <c r="F128" s="60">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="G128" s="34"/>
+    </row>
+    <row r="129" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="31">
+        <f>IF(LEN(C129)=0,"",COUNTA($C$62:C129))</f>
+        <v>64</v>
+      </c>
+      <c r="B129" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E129" s="60">
+        <v>108000</v>
+      </c>
+      <c r="F129" s="60">
+        <f t="shared" ref="F129" si="1">E129*90%</f>
+        <v>97200</v>
+      </c>
+      <c r="G129" s="34"/>
+    </row>
+    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="156" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" s="156"/>
+      <c r="C130" s="156"/>
+      <c r="D130" s="156"/>
+      <c r="E130" s="69"/>
+      <c r="F130" s="69"/>
+      <c r="G130" s="59"/>
+    </row>
+    <row r="131" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="31">
+        <f>IF(LEN(C131)=0,"",COUNTA($C$62:C131))</f>
+        <v>65</v>
+      </c>
+      <c r="B131" s="168"/>
+      <c r="C131" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="D131" s="29"/>
+      <c r="E131" s="64">
+        <v>250000</v>
+      </c>
+      <c r="F131" s="60">
+        <f t="shared" ref="F131:F197" si="2">E131*90%</f>
+        <v>225000</v>
+      </c>
+      <c r="G131" s="34"/>
+    </row>
+    <row r="132" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="31">
+        <f>IF(LEN(C132)=0,"",COUNTA($C$62:C132))</f>
+        <v>66</v>
+      </c>
+      <c r="B132" s="168"/>
+      <c r="C132" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="D132" s="29"/>
+      <c r="E132" s="64">
+        <v>375000</v>
+      </c>
+      <c r="F132" s="60">
+        <f t="shared" si="2"/>
+        <v>337500</v>
+      </c>
+      <c r="G132" s="34"/>
+    </row>
+    <row r="133" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="31">
+        <f>IF(LEN(C133)=0,"",COUNTA($C$62:C133))</f>
+        <v>67</v>
+      </c>
+      <c r="B133" s="168"/>
+      <c r="C133" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D133" s="29"/>
+      <c r="E133" s="64">
+        <v>500000</v>
+      </c>
+      <c r="F133" s="60">
+        <f t="shared" si="2"/>
+        <v>450000</v>
+      </c>
+      <c r="G133" s="34"/>
+    </row>
+    <row r="134" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A134" s="31">
+        <f>IF(LEN(C134)=0,"",COUNTA($C$62:C134))</f>
+        <v>68</v>
+      </c>
+      <c r="B134" s="168"/>
+      <c r="C134" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="60">
+        <v>700000</v>
+      </c>
+      <c r="F134" s="60">
+        <f t="shared" si="2"/>
+        <v>630000</v>
+      </c>
+      <c r="G134" s="34"/>
+    </row>
+    <row r="135" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="31">
+        <f>IF(LEN(C135)=0,"",COUNTA($C$62:C135))</f>
+        <v>69</v>
+      </c>
+      <c r="B135" s="168"/>
+      <c r="C135" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D135" s="98" t="s">
+        <v>322</v>
+      </c>
+      <c r="E135" s="60">
+        <v>770000</v>
+      </c>
+      <c r="F135" s="60">
+        <f t="shared" si="2"/>
+        <v>693000</v>
+      </c>
+      <c r="G135" s="34"/>
+    </row>
+    <row r="136" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="31">
+        <f>IF(LEN(C136)=0,"",COUNTA($C$62:C136))</f>
+        <v>70</v>
+      </c>
+      <c r="B136" s="169" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E136" s="64">
+        <v>157000</v>
+      </c>
+      <c r="F136" s="60">
+        <f t="shared" si="2"/>
+        <v>141300</v>
+      </c>
+      <c r="G136" s="34"/>
+    </row>
+    <row r="137" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="31">
+        <f>IF(LEN(C137)=0,"",COUNTA($C$62:C137))</f>
+        <v>71</v>
+      </c>
+      <c r="B137" s="170"/>
+      <c r="C137" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E137" s="64">
+        <v>157000</v>
+      </c>
+      <c r="F137" s="60">
+        <f t="shared" si="2"/>
+        <v>141300</v>
+      </c>
+      <c r="G137" s="34"/>
+    </row>
+    <row r="138" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="31">
+        <f>IF(LEN(C138)=0,"",COUNTA($C$62:C138))</f>
+        <v>72</v>
+      </c>
+      <c r="B138" s="170"/>
+      <c r="C138" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E138" s="64">
+        <v>143000</v>
+      </c>
+      <c r="F138" s="60">
+        <f t="shared" si="2"/>
+        <v>128700</v>
+      </c>
+      <c r="G138" s="34"/>
+    </row>
+    <row r="139" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="31">
+        <f>IF(LEN(C139)=0,"",COUNTA($C$62:C139))</f>
+        <v>73</v>
+      </c>
+      <c r="B139" s="170"/>
+      <c r="C139" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E139" s="64">
+        <v>185000</v>
+      </c>
+      <c r="F139" s="60">
+        <f t="shared" si="2"/>
+        <v>166500</v>
+      </c>
+      <c r="G139" s="34"/>
+    </row>
+    <row r="140" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="31">
+        <f>IF(LEN(C140)=0,"",COUNTA($C$62:C140))</f>
+        <v>74</v>
+      </c>
+      <c r="B140" s="170"/>
+      <c r="C140" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E140" s="64">
+        <v>1200000</v>
+      </c>
+      <c r="F140" s="60">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="G140" s="99"/>
+    </row>
+    <row r="141" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A141" s="31">
+        <f>IF(LEN(C141)=0,"",COUNTA($C$62:C141))</f>
+        <v>75</v>
+      </c>
+      <c r="B141" s="171"/>
+      <c r="C141" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E141" s="64"/>
+      <c r="F141" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="34"/>
+    </row>
+    <row r="142" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A142" s="31">
+        <f>IF(LEN(C142)=0,"",COUNTA($C$62:C142))</f>
+        <v>76</v>
+      </c>
+      <c r="B142" s="170" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="64"/>
+      <c r="F142" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="34"/>
+    </row>
+    <row r="143" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A143" s="31">
+        <f>IF(LEN(C143)=0,"",COUNTA($C$62:C143))</f>
+        <v>77</v>
+      </c>
+      <c r="B143" s="170"/>
+      <c r="C143" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E143" s="60">
+        <v>847000</v>
+      </c>
+      <c r="F143" s="60">
+        <f t="shared" si="2"/>
+        <v>762300</v>
+      </c>
+      <c r="G143" s="34"/>
+    </row>
+    <row r="144" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A144" s="31">
+        <f>IF(LEN(C144)=0,"",COUNTA($C$62:C144))</f>
+        <v>78</v>
+      </c>
+      <c r="B144" s="170"/>
+      <c r="C144" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E144" s="60">
+        <v>2178000</v>
+      </c>
+      <c r="F144" s="60">
+        <f t="shared" si="2"/>
+        <v>1960200</v>
+      </c>
+      <c r="G144" s="34"/>
+    </row>
+    <row r="145" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A145" s="31">
+        <f>IF(LEN(C145)=0,"",COUNTA($C$62:C145))</f>
+        <v>79</v>
+      </c>
+      <c r="B145" s="170"/>
+      <c r="C145" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E145" s="60">
+        <v>847000</v>
+      </c>
+      <c r="F145" s="60">
+        <f t="shared" si="2"/>
+        <v>762300</v>
+      </c>
+      <c r="G145" s="34"/>
+    </row>
+    <row r="146" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A146" s="31">
+        <f>IF(LEN(C146)=0,"",COUNTA($C$62:C146))</f>
+        <v>80</v>
+      </c>
+      <c r="B146" s="170"/>
+      <c r="C146" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D146" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="E146" s="60">
+        <v>1700000</v>
+      </c>
+      <c r="F146" s="60">
+        <f t="shared" si="2"/>
+        <v>1530000</v>
+      </c>
+      <c r="G146" s="34"/>
+    </row>
+    <row r="147" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A147" s="31">
+        <f>IF(LEN(C147)=0,"",COUNTA($C$62:C147))</f>
+        <v>81</v>
+      </c>
+      <c r="B147" s="170"/>
+      <c r="C147" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E147" s="60"/>
+      <c r="F147" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="34"/>
+    </row>
+    <row r="148" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A148" s="31">
+        <f>IF(LEN(C148)=0,"",COUNTA($C$62:C148))</f>
+        <v>82</v>
+      </c>
+      <c r="B148" s="172" t="s">
+        <v>299</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E148" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F148" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G148" s="103" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="31">
+        <f>IF(LEN(C149)=0,"",COUNTA($C$62:C149))</f>
+        <v>83</v>
+      </c>
+      <c r="B149" s="172"/>
+      <c r="C149" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E149" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F149" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G149" s="34"/>
+    </row>
+    <row r="150" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="31">
+        <f>IF(LEN(C150)=0,"",COUNTA($C$62:C150))</f>
+        <v>84</v>
+      </c>
+      <c r="B150" s="172"/>
+      <c r="C150" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E150" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F150" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G150" s="103" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="31">
+        <f>IF(LEN(C151)=0,"",COUNTA($C$62:C151))</f>
+        <v>85</v>
+      </c>
+      <c r="B151" s="172"/>
+      <c r="C151" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D151" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E151" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F151" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G151" s="34"/>
+    </row>
+    <row r="152" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="31">
+        <f>IF(LEN(C152)=0,"",COUNTA($C$62:C152))</f>
+        <v>86</v>
+      </c>
+      <c r="B152" s="172"/>
+      <c r="C152" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="E152" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F152" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G152" s="34"/>
+    </row>
+    <row r="153" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="31">
+        <f>IF(LEN(C153)=0,"",COUNTA($C$62:C153))</f>
+        <v>87</v>
+      </c>
+      <c r="B153" s="172"/>
+      <c r="C153" s="98" t="s">
+        <v>365</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E153" s="97">
+        <v>5730000</v>
+      </c>
+      <c r="F153" s="60">
+        <f t="shared" si="2"/>
+        <v>5157000</v>
+      </c>
+      <c r="G153" s="34"/>
+    </row>
+    <row r="154" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="31">
+        <f>IF(LEN(C154)=0,"",COUNTA($C$62:C154))</f>
+        <v>88</v>
+      </c>
+      <c r="B154" s="172"/>
+      <c r="C154" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E154" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F154" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G154" s="34"/>
+    </row>
+    <row r="155" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="31">
+        <f>IF(LEN(C155)=0,"",COUNTA($C$62:C155))</f>
+        <v>89</v>
+      </c>
+      <c r="B155" s="172"/>
+      <c r="C155" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E155" s="97">
+        <v>4530000</v>
+      </c>
+      <c r="F155" s="60">
+        <f t="shared" si="2"/>
+        <v>4077000</v>
+      </c>
+      <c r="G155" s="34"/>
+    </row>
+    <row r="156" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="31">
+        <f>IF(LEN(C156)=0,"",COUNTA($C$62:C156))</f>
+        <v>90</v>
+      </c>
+      <c r="B156" s="172"/>
+      <c r="C156" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E156" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F156" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G156" s="34"/>
+    </row>
+    <row r="157" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="31">
+        <f>IF(LEN(C157)=0,"",COUNTA($C$62:C157))</f>
+        <v>91</v>
+      </c>
+      <c r="B157" s="172"/>
+      <c r="C157" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="D157" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E157" s="97">
+        <v>5515200</v>
+      </c>
+      <c r="F157" s="60">
+        <f t="shared" si="2"/>
+        <v>4963680</v>
+      </c>
+      <c r="G157" s="34"/>
+    </row>
+    <row r="158" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A158" s="31">
+        <f>IF(LEN(C158)=0,"",COUNTA($C$62:C158))</f>
+        <v>92</v>
+      </c>
+      <c r="B158" s="172"/>
+      <c r="C158" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E158" s="64">
+        <v>2790000</v>
+      </c>
+      <c r="F158" s="60">
+        <f t="shared" si="2"/>
+        <v>2511000</v>
+      </c>
+      <c r="G158" s="104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="31">
+        <f>IF(LEN(C159)=0,"",COUNTA($C$62:C159))</f>
+        <v>93</v>
+      </c>
+      <c r="B159" s="172"/>
+      <c r="C159" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D159" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E159" s="97">
+        <v>3078000</v>
+      </c>
+      <c r="F159" s="60">
+        <f t="shared" si="2"/>
+        <v>2770200</v>
+      </c>
+      <c r="G159" s="34"/>
+    </row>
+    <row r="160" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="31">
+        <f>IF(LEN(C160)=0,"",COUNTA($C$62:C160))</f>
+        <v>94</v>
+      </c>
+      <c r="B160" s="172"/>
+      <c r="C160" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E160" s="97">
+        <v>4200000</v>
+      </c>
+      <c r="F160" s="60">
+        <f t="shared" si="2"/>
+        <v>3780000</v>
+      </c>
+      <c r="G160" s="34"/>
+    </row>
+    <row r="161" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="31">
+        <f>IF(LEN(C161)=0,"",COUNTA($C$62:C161))</f>
+        <v>95</v>
+      </c>
+      <c r="B161" s="172"/>
+      <c r="C161" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="D161" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E161" s="97">
+        <v>3078000</v>
+      </c>
+      <c r="F161" s="60">
+        <f t="shared" si="2"/>
+        <v>2770200</v>
+      </c>
+      <c r="G161" s="34"/>
+    </row>
+    <row r="162" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="31">
+        <f>IF(LEN(C162)=0,"",COUNTA($C$62:C162))</f>
+        <v>96</v>
+      </c>
+      <c r="B162" s="172"/>
+      <c r="C162" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="D162" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E162" s="97">
+        <v>4200000</v>
+      </c>
+      <c r="F162" s="60">
+        <f t="shared" si="2"/>
+        <v>3780000</v>
+      </c>
+      <c r="G162" s="34"/>
+    </row>
+    <row r="163" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="31">
+        <f>IF(LEN(C163)=0,"",COUNTA($C$62:C163))</f>
+        <v>97</v>
+      </c>
+      <c r="B163" s="172"/>
+      <c r="C163" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D163" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E163" s="97">
+        <v>3078000</v>
+      </c>
+      <c r="F163" s="60">
+        <f t="shared" si="2"/>
+        <v>2770200</v>
+      </c>
+      <c r="G163" s="34"/>
+    </row>
+    <row r="164" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A164" s="31">
+        <f>IF(LEN(C164)=0,"",COUNTA($C$62:C164))</f>
+        <v>98</v>
+      </c>
+      <c r="B164" s="172"/>
+      <c r="C164" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="D164" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="E164" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F164" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G164" s="34"/>
+    </row>
+    <row r="165" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A165" s="31">
+        <f>IF(LEN(C165)=0,"",COUNTA($C$62:C165))</f>
+        <v>99</v>
+      </c>
+      <c r="B165" s="172"/>
+      <c r="C165" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="D165" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="E165" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F165" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G165" s="34"/>
+    </row>
+    <row r="166" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A166" s="31">
+        <f>IF(LEN(C166)=0,"",COUNTA($C$62:C166))</f>
+        <v>100</v>
+      </c>
+      <c r="B166" s="172"/>
+      <c r="C166" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E166" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F166" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G166" s="34"/>
+    </row>
+    <row r="167" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A167" s="31">
+        <f>IF(LEN(C167)=0,"",COUNTA($C$62:C167))</f>
+        <v>101</v>
+      </c>
+      <c r="B167" s="172"/>
+      <c r="C167" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D167" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E167" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F167" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G167" s="34"/>
+    </row>
+    <row r="168" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A168" s="31">
+        <f>IF(LEN(C168)=0,"",COUNTA($C$62:C168))</f>
+        <v>102</v>
+      </c>
+      <c r="B168" s="172"/>
+      <c r="C168" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D168" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E168" s="97">
+        <v>7740000</v>
+      </c>
+      <c r="F168" s="60">
+        <f t="shared" si="2"/>
+        <v>6966000</v>
+      </c>
+      <c r="G168" s="34"/>
+    </row>
+    <row r="169" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A169" s="31">
+        <f>IF(LEN(C169)=0,"",COUNTA($C$62:C169))</f>
+        <v>103</v>
+      </c>
+      <c r="B169" s="172"/>
+      <c r="C169" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="D169" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E169" s="97">
+        <v>3420000</v>
+      </c>
+      <c r="F169" s="60">
+        <f t="shared" si="2"/>
+        <v>3078000</v>
+      </c>
+      <c r="G169" s="34"/>
+    </row>
+    <row r="170" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="31">
+        <f>IF(LEN(C170)=0,"",COUNTA($C$62:C170))</f>
+        <v>104</v>
+      </c>
+      <c r="B170" s="172"/>
+      <c r="C170" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D170" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E170" s="97">
+        <v>4740000</v>
+      </c>
+      <c r="F170" s="60">
+        <f t="shared" si="2"/>
+        <v>4266000</v>
+      </c>
+      <c r="G170" s="34"/>
+    </row>
+    <row r="171" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A171" s="31">
+        <f>IF(LEN(C171)=0,"",COUNTA($C$62:C171))</f>
+        <v>105</v>
+      </c>
+      <c r="B171" s="172"/>
+      <c r="C171" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D171" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E171" s="64">
+        <v>3720000</v>
+      </c>
+      <c r="F171" s="60">
+        <f t="shared" si="2"/>
+        <v>3348000</v>
+      </c>
+      <c r="G171" s="34"/>
+    </row>
+    <row r="172" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A172" s="31">
+        <f>IF(LEN(C172)=0,"",COUNTA($C$62:C172))</f>
+        <v>106</v>
+      </c>
+      <c r="B172" s="172"/>
+      <c r="C172" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="D172" s="29"/>
+      <c r="E172" s="97">
+        <v>6060000</v>
+      </c>
+      <c r="F172" s="60">
+        <f t="shared" si="2"/>
+        <v>5454000</v>
+      </c>
+      <c r="G172" s="34"/>
+    </row>
+    <row r="173" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A173" s="31">
+        <f>IF(LEN(C173)=0,"",COUNTA($C$62:C173))</f>
+        <v>107</v>
+      </c>
+      <c r="B173" s="172"/>
+      <c r="C173" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D173" s="29"/>
+      <c r="E173" s="97">
+        <v>6060000</v>
+      </c>
+      <c r="F173" s="60">
+        <f t="shared" si="2"/>
+        <v>5454000</v>
+      </c>
+      <c r="G173" s="34"/>
+    </row>
+    <row r="174" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A174" s="31">
+        <f>IF(LEN(C174)=0,"",COUNTA($C$62:C174))</f>
+        <v>108</v>
+      </c>
+      <c r="B174" s="172"/>
+      <c r="C174" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E174" s="97">
+        <v>5520000</v>
+      </c>
+      <c r="F174" s="60">
+        <f t="shared" si="2"/>
+        <v>4968000</v>
+      </c>
+      <c r="G174" s="34"/>
+    </row>
+    <row r="175" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A175" s="31">
+        <f>IF(LEN(C175)=0,"",COUNTA($C$62:C175))</f>
+        <v>109</v>
+      </c>
+      <c r="B175" s="172"/>
+      <c r="C175" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="D175" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E175" s="97">
+        <v>9930000</v>
+      </c>
+      <c r="F175" s="60">
+        <f t="shared" si="2"/>
+        <v>8937000</v>
+      </c>
+      <c r="G175" s="34"/>
+    </row>
+    <row r="176" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A176" s="31">
+        <f>IF(LEN(C176)=0,"",COUNTA($C$62:C176))</f>
+        <v>110</v>
+      </c>
+      <c r="B176" s="172"/>
+      <c r="C176" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="D176" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E176" s="97">
+        <v>7740000</v>
+      </c>
+      <c r="F176" s="60">
+        <f t="shared" si="2"/>
+        <v>6966000</v>
+      </c>
+      <c r="G176" s="34"/>
+    </row>
+    <row r="177" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A177" s="31">
+        <f>IF(LEN(C177)=0,"",COUNTA($C$62:C177))</f>
+        <v>111</v>
+      </c>
+      <c r="B177" s="172"/>
+      <c r="C177" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E177" s="97">
+        <v>23160000</v>
+      </c>
+      <c r="F177" s="60">
+        <f t="shared" si="2"/>
+        <v>20844000</v>
+      </c>
+      <c r="G177" s="34"/>
+    </row>
+    <row r="178" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="156" t="s">
+        <v>201</v>
+      </c>
+      <c r="B178" s="156"/>
+      <c r="C178" s="156"/>
+      <c r="D178" s="156"/>
+      <c r="E178" s="69"/>
+      <c r="F178" s="69"/>
+      <c r="G178" s="59"/>
+    </row>
+    <row r="179" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A179" s="31">
+        <f>IF(LEN(C179)=0,"",COUNTA($C$62:C179))</f>
+        <v>112</v>
+      </c>
+      <c r="B179" s="70"/>
+      <c r="C179" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D179" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E179" s="64">
+        <v>88000</v>
+      </c>
+      <c r="F179" s="60">
+        <f t="shared" si="2"/>
+        <v>79200</v>
+      </c>
+      <c r="G179" s="34"/>
+    </row>
+    <row r="180" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A180" s="31">
+        <f>IF(LEN(C180)=0,"",COUNTA($C$62:C180))</f>
+        <v>113</v>
+      </c>
+      <c r="B180" s="71"/>
+      <c r="C180" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D180" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="E180" s="73">
+        <v>450000</v>
+      </c>
+      <c r="F180" s="60">
+        <f t="shared" si="2"/>
+        <v>405000</v>
+      </c>
+      <c r="G180" s="34"/>
+      <c r="H180" s="10"/>
+    </row>
+    <row r="181" spans="1:8" s="13" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="31">
+        <f>IF(LEN(C181)=0,"",COUNTA($C$62:C181))</f>
+        <v>114</v>
+      </c>
+      <c r="B181" s="169" t="s">
+        <v>199</v>
+      </c>
+      <c r="C181" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D181" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E181" s="64">
+        <v>178000</v>
+      </c>
+      <c r="F181" s="60">
+        <f t="shared" si="2"/>
+        <v>160200</v>
+      </c>
+      <c r="G181" s="34"/>
+    </row>
+    <row r="182" spans="1:8" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A182" s="31">
+        <f>IF(LEN(C182)=0,"",COUNTA($C$62:C182))</f>
+        <v>115</v>
+      </c>
+      <c r="B182" s="171"/>
+      <c r="C182" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E182" s="64">
+        <v>127000</v>
+      </c>
+      <c r="F182" s="60">
+        <f t="shared" si="2"/>
+        <v>114300</v>
+      </c>
+      <c r="G182" s="34"/>
+    </row>
+    <row r="183" spans="1:8" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B183" s="160"/>
+      <c r="C183" s="160"/>
+      <c r="D183" s="161"/>
+      <c r="E183" s="108"/>
+      <c r="F183" s="108"/>
+      <c r="G183" s="54"/>
+    </row>
+    <row r="184" spans="1:8" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A184" s="31">
+        <f>IF(LEN(C184)=0,"",COUNTA($C$62:C184))</f>
+        <v>116</v>
+      </c>
+      <c r="B184" s="75"/>
+      <c r="C184" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D184" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184" s="74">
+        <v>71000</v>
+      </c>
+      <c r="F184" s="60">
+        <f t="shared" si="2"/>
+        <v>63900</v>
+      </c>
+      <c r="G184" s="154" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" s="14" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="31">
+        <f>IF(LEN(C185)=0,"",COUNTA($C$62:C185))</f>
+        <v>117</v>
+      </c>
+      <c r="B185" s="75"/>
+      <c r="C185" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D185" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E185" s="74">
+        <v>86000</v>
+      </c>
+      <c r="F185" s="60">
+        <f t="shared" si="2"/>
+        <v>77400</v>
+      </c>
+      <c r="G185" s="155"/>
+    </row>
+    <row r="186" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A186" s="156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B186" s="156"/>
+      <c r="C186" s="156"/>
+      <c r="D186" s="156"/>
+      <c r="E186" s="69"/>
+      <c r="F186" s="69"/>
+      <c r="G186" s="59"/>
+    </row>
+    <row r="187" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="31">
+        <f>IF(LEN(C187)=0,"",COUNTA($C$15:C187))</f>
+        <v>154</v>
+      </c>
+      <c r="B187" s="114"/>
+      <c r="C187" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="D187" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E187" s="60">
+        <v>1968000</v>
+      </c>
+      <c r="F187" s="60">
+        <f t="shared" si="2"/>
+        <v>1771200</v>
+      </c>
+      <c r="G187" s="9"/>
+    </row>
+    <row r="188" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="31">
+        <f>IF(LEN(C188)=0,"",COUNTA($C$62:C188))</f>
+        <v>119</v>
+      </c>
+      <c r="B188" s="32"/>
+      <c r="C188" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D188" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E188" s="97">
+        <v>2952000</v>
+      </c>
+      <c r="F188" s="60">
+        <f t="shared" si="2"/>
+        <v>2656800</v>
+      </c>
+      <c r="G188" s="157"/>
+    </row>
+    <row r="189" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+      <c r="A189" s="31">
+        <f>IF(LEN(C189)=0,"",COUNTA($C$62:C189))</f>
+        <v>120</v>
+      </c>
+      <c r="B189" s="32"/>
+      <c r="C189" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D189" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E189" s="97">
+        <v>4100000</v>
+      </c>
+      <c r="F189" s="60">
+        <f t="shared" si="2"/>
+        <v>3690000</v>
+      </c>
+      <c r="G189" s="158"/>
+    </row>
+    <row r="190" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="31">
+        <f>IF(LEN(C190)=0,"",COUNTA($C$62:C190))</f>
+        <v>121</v>
+      </c>
+      <c r="B190" s="32"/>
+      <c r="C190" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="E190" s="97">
+        <v>550000</v>
+      </c>
+      <c r="F190" s="60">
+        <f t="shared" si="2"/>
+        <v>495000</v>
+      </c>
+      <c r="G190" s="95"/>
+    </row>
+    <row r="191" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="31">
+        <f>IF(LEN(C191)=0,"",COUNTA($C$62:C191))</f>
+        <v>122</v>
+      </c>
+      <c r="B191" s="32"/>
+      <c r="C191" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E191" s="64">
+        <v>268000</v>
+      </c>
+      <c r="F191" s="60">
+        <f t="shared" si="2"/>
+        <v>241200</v>
+      </c>
+      <c r="G191" s="34"/>
+    </row>
+    <row r="192" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="31">
+        <f>IF(LEN(C192)=0,"",COUNTA($C$62:C192))</f>
+        <v>123</v>
+      </c>
+      <c r="B192" s="32"/>
+      <c r="C192" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E192" s="64">
+        <v>151000</v>
+      </c>
+      <c r="F192" s="60">
+        <f t="shared" si="2"/>
+        <v>135900</v>
+      </c>
+      <c r="G192" s="34"/>
+    </row>
+    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="31">
+        <f>IF(LEN(C193)=0,"",COUNTA($C$62:C193))</f>
+        <v>124</v>
+      </c>
+      <c r="B193" s="32"/>
+      <c r="C193" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="E193" s="64">
+        <v>220000</v>
+      </c>
+      <c r="F193" s="60">
+        <f t="shared" si="2"/>
+        <v>198000</v>
+      </c>
+      <c r="G193" s="34"/>
+    </row>
+    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="156" t="s">
+        <v>258</v>
+      </c>
+      <c r="B194" s="156"/>
+      <c r="C194" s="156"/>
+      <c r="D194" s="156"/>
+      <c r="E194" s="69"/>
+      <c r="F194" s="69"/>
+      <c r="G194" s="59"/>
+    </row>
+    <row r="195" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A195" s="31">
+        <f>IF(LEN(C195)=0,"",COUNTA($C$62:C195))</f>
+        <v>125</v>
+      </c>
+      <c r="B195" s="32"/>
+      <c r="C195" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E195" s="64">
+        <v>390000</v>
+      </c>
+      <c r="F195" s="60">
+        <f t="shared" si="2"/>
+        <v>351000</v>
+      </c>
+      <c r="G195" s="34"/>
+    </row>
+    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="156" t="s">
+        <v>228</v>
+      </c>
+      <c r="B196" s="156"/>
+      <c r="C196" s="156"/>
+      <c r="D196" s="156"/>
+      <c r="E196" s="69"/>
+      <c r="F196" s="69"/>
+      <c r="G196" s="59"/>
+    </row>
+    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="31">
+        <f>IF(LEN(C197)=0,"",COUNTA($C$62:C197))</f>
+        <v>126</v>
+      </c>
+      <c r="B197" s="70"/>
+      <c r="C197" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="96">
+        <v>165000</v>
+      </c>
+      <c r="F197" s="60">
+        <f t="shared" si="2"/>
+        <v>148500</v>
+      </c>
+      <c r="G197" s="34"/>
+    </row>
+    <row r="198" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A198" s="31">
+        <f>IF(LEN(C198)=0,"",COUNTA($C$62:C198))</f>
+        <v>127</v>
+      </c>
+      <c r="B198" s="70"/>
+      <c r="C198" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D198" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E198" s="60">
+        <v>72000</v>
+      </c>
+      <c r="F198" s="60">
+        <f t="shared" ref="F198:F203" si="3">E198*90%</f>
+        <v>64800</v>
+      </c>
+      <c r="G198" s="34"/>
+    </row>
+    <row r="199" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="31">
+        <f>IF(LEN(C199)=0,"",COUNTA($C$62:C199))</f>
+        <v>128</v>
+      </c>
+      <c r="B199" s="70"/>
+      <c r="C199" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D199" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E199" s="60">
+        <v>605000</v>
+      </c>
+      <c r="F199" s="60">
+        <f t="shared" si="3"/>
+        <v>544500</v>
+      </c>
+      <c r="G199" s="34"/>
+    </row>
+    <row r="200" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="31">
+        <f>IF(LEN(C200)=0,"",COUNTA($C$62:C200))</f>
+        <v>129</v>
+      </c>
+      <c r="B200" s="70"/>
+      <c r="C200" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="D200" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E200" s="37">
+        <v>1100000</v>
+      </c>
+      <c r="F200" s="60">
+        <f t="shared" si="3"/>
+        <v>990000</v>
+      </c>
+      <c r="G200" s="34"/>
+    </row>
+    <row r="201" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="31">
+        <f>IF(LEN(C201)=0,"",COUNTA($C$62:C201))</f>
+        <v>130</v>
+      </c>
+      <c r="B201" s="70"/>
+      <c r="C201" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="E201" s="60">
+        <v>817000</v>
+      </c>
+      <c r="F201" s="60">
+        <f t="shared" si="3"/>
+        <v>735300</v>
+      </c>
+      <c r="G201" s="34"/>
+    </row>
+    <row r="202" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="31">
+        <f>IF(LEN(C202)=0,"",COUNTA($C$62:C202))</f>
+        <v>131</v>
+      </c>
+      <c r="B202" s="70"/>
+      <c r="C202" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E202" s="60">
+        <v>1500000</v>
+      </c>
+      <c r="F202" s="60">
+        <f t="shared" si="3"/>
+        <v>1350000</v>
+      </c>
+      <c r="G202" s="34"/>
+    </row>
+    <row r="203" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A203" s="31">
+        <f>IF(LEN(C203)=0,"",COUNTA($C$62:C203))</f>
+        <v>132</v>
+      </c>
+      <c r="B203" s="70"/>
+      <c r="C203" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E203" s="64">
+        <v>220000</v>
+      </c>
+      <c r="F203" s="60">
+        <f t="shared" si="3"/>
+        <v>198000</v>
+      </c>
+      <c r="G203" s="34"/>
+    </row>
+    <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="159" t="s">
+        <v>317</v>
+      </c>
+      <c r="B204" s="160"/>
+      <c r="C204" s="160"/>
+      <c r="D204" s="161"/>
+      <c r="E204" s="58"/>
+      <c r="F204" s="58"/>
+      <c r="G204" s="59"/>
+    </row>
+    <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="31">
+        <f>IF(LEN(C205)=0,"",COUNTA($C$62:C205))</f>
+        <v>133</v>
+      </c>
+      <c r="B205" s="70"/>
+      <c r="C205" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="D205" s="29"/>
+      <c r="E205" s="97">
+        <v>165000</v>
+      </c>
+      <c r="F205" s="60">
+        <f t="shared" ref="F205:F209" si="4">E205*90%</f>
+        <v>148500</v>
+      </c>
+      <c r="G205" s="34"/>
+    </row>
+    <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="31">
+        <f>IF(LEN(C206)=0,"",COUNTA($C$62:C206))</f>
+        <v>134</v>
+      </c>
+      <c r="B206" s="70"/>
+      <c r="C206" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="E206" s="64">
+        <v>220000</v>
+      </c>
+      <c r="F206" s="60">
+        <f t="shared" si="4"/>
+        <v>198000</v>
+      </c>
+      <c r="G206" s="34"/>
+    </row>
+    <row r="207" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+      <c r="A207" s="31">
+        <f>IF(LEN(C207)=0,"",COUNTA($C$62:C207))</f>
+        <v>135</v>
+      </c>
+      <c r="B207" s="70"/>
+      <c r="C207" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="D207" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E207" s="64">
+        <v>380000</v>
+      </c>
+      <c r="F207" s="60">
+        <f t="shared" si="4"/>
+        <v>342000</v>
+      </c>
+      <c r="G207" s="34"/>
+    </row>
+    <row r="208" spans="1:7" ht="99" x14ac:dyDescent="0.25">
+      <c r="A208" s="31">
+        <f>IF(LEN(C208)=0,"",COUNTA($C$62:C208))</f>
+        <v>136</v>
+      </c>
+      <c r="B208" s="70"/>
+      <c r="C208" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E208" s="64">
+        <v>4500000</v>
+      </c>
+      <c r="F208" s="60">
+        <f t="shared" si="4"/>
+        <v>4050000</v>
+      </c>
+      <c r="G208" s="34"/>
+    </row>
+    <row r="209" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="31">
+        <f>IF(LEN(C209)=0,"",COUNTA($C$62:C209))</f>
+        <v>137</v>
+      </c>
+      <c r="B209" s="70"/>
+      <c r="C209" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="D209" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E209" s="64">
+        <v>3200000</v>
+      </c>
+      <c r="F209" s="60">
+        <f t="shared" si="4"/>
+        <v>2880000</v>
+      </c>
+      <c r="G209" s="34"/>
+    </row>
+    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="159" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210" s="160"/>
+      <c r="C210" s="160"/>
+      <c r="D210" s="161"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="58"/>
+      <c r="G210" s="59"/>
+    </row>
+    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="31">
+        <f>IF(LEN(C211)=0,"",COUNTA($C$62:C211))</f>
+        <v>138</v>
+      </c>
+      <c r="B211" s="70"/>
+      <c r="C211" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="D211" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="E211" s="78">
+        <v>233000</v>
+      </c>
+      <c r="F211" s="60">
+        <f t="shared" ref="F211:F223" si="5">E211*90%</f>
+        <v>209700</v>
+      </c>
+      <c r="G211" s="34"/>
+    </row>
+    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="31">
+        <f>IF(LEN(C212)=0,"",COUNTA($C$62:C212))</f>
+        <v>139</v>
+      </c>
+      <c r="B212" s="70"/>
+      <c r="C212" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="D212" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="E212" s="80">
+        <v>227000</v>
+      </c>
+      <c r="F212" s="60">
+        <f t="shared" si="5"/>
+        <v>204300</v>
+      </c>
+      <c r="G212" s="34"/>
+    </row>
+    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="31">
+        <f>IF(LEN(C213)=0,"",COUNTA($C$62:C213))</f>
+        <v>140</v>
+      </c>
+      <c r="B213" s="70"/>
+      <c r="C213" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D213" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="E213" s="80">
+        <v>72000</v>
+      </c>
+      <c r="F213" s="60">
+        <f t="shared" si="5"/>
+        <v>64800</v>
+      </c>
+      <c r="G213" s="34"/>
+    </row>
+    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="159" t="s">
+        <v>205</v>
+      </c>
+      <c r="B214" s="160"/>
+      <c r="C214" s="160"/>
+      <c r="D214" s="161"/>
+      <c r="E214" s="58"/>
+      <c r="F214" s="58"/>
+      <c r="G214" s="59"/>
+    </row>
+    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A215" s="31">
+        <f>IF(LEN(C215)=0,"",COUNTA($C$62:C215))</f>
+        <v>141</v>
+      </c>
+      <c r="B215" s="70"/>
+      <c r="C215" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D215" s="29"/>
+      <c r="E215" s="162">
+        <v>183000</v>
+      </c>
+      <c r="F215" s="200">
+        <f>E215*90%</f>
+        <v>164700</v>
+      </c>
+      <c r="G215" s="34"/>
+    </row>
+    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="31">
+        <f>IF(LEN(C216)=0,"",COUNTA($C$62:C216))</f>
+        <v>142</v>
+      </c>
+      <c r="B216" s="70"/>
+      <c r="C216" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D216" s="29"/>
+      <c r="E216" s="163"/>
+      <c r="F216" s="201"/>
+      <c r="G216" s="34"/>
+    </row>
+    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="31">
+        <f>IF(LEN(C217)=0,"",COUNTA($C$62:C217))</f>
+        <v>143</v>
+      </c>
+      <c r="B217" s="70"/>
+      <c r="C217" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D217" s="29"/>
+      <c r="E217" s="163"/>
+      <c r="F217" s="201"/>
+      <c r="G217" s="34"/>
+    </row>
+    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="31">
+        <f>IF(LEN(C218)=0,"",COUNTA($C$62:C218))</f>
+        <v>144</v>
+      </c>
+      <c r="B218" s="70"/>
+      <c r="C218" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D218" s="29"/>
+      <c r="E218" s="164"/>
+      <c r="F218" s="202"/>
+      <c r="G218" s="34"/>
+    </row>
+    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="159" t="s">
+        <v>403</v>
+      </c>
+      <c r="B219" s="160"/>
+      <c r="C219" s="160"/>
+      <c r="D219" s="161"/>
+      <c r="E219" s="58"/>
+      <c r="F219" s="58"/>
+      <c r="G219" s="59"/>
+    </row>
+    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="31">
+        <f>IF(LEN(C220)=0,"",COUNTA($C$62:C220))</f>
+        <v>145</v>
+      </c>
+      <c r="B220" s="70"/>
+      <c r="C220" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="D220" s="29"/>
+      <c r="E220" s="64">
+        <v>205000</v>
+      </c>
+      <c r="F220" s="60">
+        <f t="shared" si="5"/>
+        <v>184500</v>
+      </c>
+      <c r="G220" s="34"/>
+    </row>
+    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="31">
+        <f>IF(LEN(C221)=0,"",COUNTA($C$62:C221))</f>
+        <v>146</v>
+      </c>
+      <c r="B221" s="70"/>
+      <c r="C221" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="D221" s="29"/>
+      <c r="E221" s="64">
+        <v>340000</v>
+      </c>
+      <c r="F221" s="60">
+        <f t="shared" si="5"/>
+        <v>306000</v>
+      </c>
+      <c r="G221" s="34"/>
+    </row>
+    <row r="222" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="31">
+        <f>IF(LEN(C222)=0,"",COUNTA($C$62:C222))</f>
+        <v>147</v>
+      </c>
+      <c r="B222" s="70"/>
+      <c r="C222" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="D222" s="29"/>
+      <c r="E222" s="64">
+        <v>1700000</v>
+      </c>
+      <c r="F222" s="60">
+        <f t="shared" si="5"/>
+        <v>1530000</v>
+      </c>
+      <c r="G222" s="34"/>
+    </row>
+    <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="31">
+        <f>IF(LEN(C223)=0,"",COUNTA($C$62:C223))</f>
+        <v>148</v>
+      </c>
+      <c r="B223" s="70"/>
+      <c r="C223" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="D223" s="29"/>
+      <c r="E223" s="64">
+        <v>1360000</v>
+      </c>
+      <c r="F223" s="60">
+        <f t="shared" si="5"/>
+        <v>1224000</v>
+      </c>
+      <c r="G223" s="34"/>
+    </row>
+    <row r="224" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="219" t="s">
+        <v>423</v>
+      </c>
+      <c r="B224" s="82"/>
+      <c r="C224" s="81"/>
+      <c r="D224" s="81"/>
+      <c r="E224" s="83"/>
+      <c r="F224" s="83"/>
+      <c r="G224" s="84"/>
+    </row>
+    <row r="225" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="81"/>
+      <c r="B225" s="82"/>
+      <c r="C225" s="81"/>
+      <c r="D225" s="81"/>
+      <c r="E225" s="83"/>
+      <c r="F225" s="83"/>
+      <c r="G225" s="84"/>
+    </row>
+    <row r="226" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="81"/>
+      <c r="B226" s="82"/>
+      <c r="C226" s="81"/>
+      <c r="D226" s="81"/>
+      <c r="E226" s="203" t="s">
+        <v>422</v>
+      </c>
+      <c r="F226" s="204"/>
+      <c r="G226" s="205"/>
+    </row>
+    <row r="227" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="81"/>
+      <c r="B227" s="82"/>
+      <c r="C227" s="81"/>
+      <c r="D227" s="81"/>
+      <c r="E227" s="206" t="s">
+        <v>421</v>
+      </c>
+      <c r="F227" s="207"/>
+      <c r="G227" s="208"/>
+    </row>
+    <row r="228" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A228" s="81"/>
+      <c r="B228" s="82"/>
+      <c r="C228" s="81"/>
+      <c r="D228" s="81"/>
+      <c r="E228" s="83"/>
+      <c r="F228" s="83"/>
+      <c r="G228" s="84"/>
+    </row>
+    <row r="229" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="81"/>
+      <c r="B229" s="82"/>
+      <c r="C229" s="81"/>
+      <c r="D229" s="81"/>
+      <c r="E229" s="83"/>
+      <c r="F229" s="83"/>
+      <c r="G229" s="84"/>
+    </row>
+    <row r="230" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="81"/>
+      <c r="B230" s="82"/>
+      <c r="C230" s="81"/>
+      <c r="D230" s="81"/>
+      <c r="E230" s="83"/>
+      <c r="F230" s="83"/>
+      <c r="G230" s="84"/>
+    </row>
+    <row r="231" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="81"/>
+      <c r="B231" s="82"/>
+      <c r="C231" s="81"/>
+      <c r="D231" s="81"/>
+      <c r="E231" s="83"/>
+      <c r="F231" s="83"/>
+      <c r="G231" s="84"/>
+    </row>
+    <row r="232" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="81"/>
+      <c r="B232" s="82"/>
+      <c r="C232" s="81"/>
+      <c r="D232" s="81"/>
+      <c r="E232" s="83"/>
+      <c r="F232" s="83"/>
+      <c r="G232" s="84"/>
+    </row>
+    <row r="233" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="81"/>
+      <c r="B233" s="82"/>
+      <c r="C233" s="81"/>
+      <c r="D233" s="81"/>
+      <c r="E233" s="83"/>
+      <c r="F233" s="83"/>
+      <c r="G233" s="84"/>
+    </row>
+    <row r="234" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="81"/>
+      <c r="B234" s="82"/>
+      <c r="C234" s="81"/>
+      <c r="D234" s="81"/>
+      <c r="E234" s="83"/>
+      <c r="F234" s="83"/>
+      <c r="G234" s="84"/>
+    </row>
+    <row r="235" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="81"/>
+      <c r="B235" s="82"/>
+      <c r="C235" s="81"/>
+      <c r="D235" s="81"/>
+      <c r="E235" s="83"/>
+      <c r="F235" s="83"/>
+      <c r="G235" s="84"/>
+    </row>
+    <row r="236" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="81"/>
+      <c r="B236" s="82"/>
+      <c r="C236" s="81"/>
+      <c r="D236" s="81"/>
+      <c r="E236" s="83"/>
+      <c r="F236" s="83"/>
+      <c r="G236" s="84"/>
+    </row>
+    <row r="237" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="81"/>
+      <c r="B237" s="82"/>
+      <c r="C237" s="81"/>
+      <c r="D237" s="81"/>
+      <c r="E237" s="83"/>
+      <c r="F237" s="83"/>
+      <c r="G237" s="84"/>
+    </row>
+    <row r="238" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="B238" s="153"/>
+      <c r="C238" s="153"/>
+      <c r="D238" s="153"/>
+      <c r="E238" s="24"/>
+      <c r="F238" s="24"/>
+      <c r="G238" s="85"/>
+    </row>
+    <row r="239" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="86"/>
+      <c r="B239" s="151" t="s">
+        <v>261</v>
+      </c>
+      <c r="C239" s="151"/>
+      <c r="D239" s="151"/>
+      <c r="E239" s="151"/>
+      <c r="F239" s="151"/>
+      <c r="G239" s="151"/>
+    </row>
+    <row r="240" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="86"/>
+      <c r="B240" s="151" t="s">
+        <v>408</v>
+      </c>
+      <c r="C240" s="151"/>
+      <c r="D240" s="151"/>
+      <c r="E240" s="151"/>
+      <c r="F240" s="151"/>
+      <c r="G240" s="151"/>
+    </row>
+    <row r="241" spans="1:7" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="87"/>
+      <c r="B241" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" s="151"/>
+      <c r="D241" s="151"/>
+      <c r="E241" s="151"/>
+      <c r="F241" s="151"/>
+      <c r="G241" s="151"/>
+    </row>
+    <row r="242" spans="1:7" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="88"/>
+      <c r="B242" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="C242" s="152"/>
+      <c r="D242" s="152"/>
+      <c r="E242" s="152"/>
+      <c r="F242" s="152"/>
+      <c r="G242" s="152"/>
+    </row>
+    <row r="243" spans="1:7" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="85"/>
+      <c r="B243" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="C243" s="151"/>
+      <c r="D243" s="151"/>
+      <c r="E243" s="151"/>
+      <c r="F243" s="151"/>
+      <c r="G243" s="151"/>
+    </row>
+    <row r="244" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="85"/>
+      <c r="B244" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C244" s="87"/>
+      <c r="D244" s="89"/>
+      <c r="E244" s="24"/>
+      <c r="F244" s="24"/>
+      <c r="G244" s="21"/>
+    </row>
+    <row r="245" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="85"/>
+      <c r="B245" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245" s="87"/>
+      <c r="D245" s="89"/>
+      <c r="E245" s="24"/>
+      <c r="F245" s="24"/>
+      <c r="G245" s="21"/>
+    </row>
+    <row r="246" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A246" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="B246" s="92"/>
+      <c r="C246" s="92"/>
+      <c r="D246" s="92"/>
+      <c r="E246" s="107"/>
+      <c r="F246" s="107"/>
+      <c r="G246" s="90"/>
+    </row>
+    <row r="247" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A247" s="85"/>
+      <c r="B247" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C247" s="21"/>
+      <c r="D247" s="89"/>
+      <c r="E247" s="93"/>
+      <c r="F247" s="93"/>
+      <c r="G247" s="21"/>
+    </row>
+    <row r="248" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A248" s="85"/>
+      <c r="B248" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C248" s="21"/>
+      <c r="D248" s="89"/>
+      <c r="E248" s="93"/>
+      <c r="F248" s="93"/>
+      <c r="G248" s="21"/>
+    </row>
+    <row r="249" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="85"/>
+      <c r="B249" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C249" s="21"/>
+      <c r="D249" s="89"/>
+      <c r="E249" s="93"/>
+      <c r="F249" s="93"/>
+      <c r="G249" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="71">
     <mergeCell ref="H41:H43"/>
     <mergeCell ref="F215:F218"/>
     <mergeCell ref="E226:G226"/>
@@ -7690,12 +12621,68 @@
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="G76:G77"/>
     <mergeCell ref="B108:B109"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D1:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A10:G11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B113:B126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B148:B177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="E215:E218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="B239:G239"/>
+    <mergeCell ref="B240:G240"/>
+    <mergeCell ref="B241:G241"/>
+    <mergeCell ref="B242:G242"/>
+    <mergeCell ref="B243:G243"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
-  <pageSetup scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>